--- a/PredLig/src/Documentation/Resultados/2005_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/2005_resultadoCompleto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="4695" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -428,11 +428,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,6 +715,11 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,15 +732,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -845,8 +845,19 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -865,80 +876,254 @@
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -949,85 +1134,260 @@
               <c:f>'Results 1994-1999'!$K$7:$K$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>32.150810051826525</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>42.867746735768698</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37.232448644868803</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>52.380923567369862</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>51.832288599395305</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>51.996879089787676</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.545514057762219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.531798183562863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.038026712385758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.991710555164232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.991710555164232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.202617202778129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.504366435164123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="33">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.398737690617573</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.929728645466469</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.010594963987039</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.053692464861996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.135296648334858</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.681801006675407</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.805764826070934</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.46071960031535</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>52.053692464861996</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>42.867746735768698</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>44.398737690617573</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>50.076656701876765</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>48.67763753354167</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>48.991710555164232</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>50.611575795651945</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>52.038026712385758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1044,80 +1404,254 @@
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1128,85 +1662,260 @@
               <c:f>'Results 1994-1999'!$L$7:$L$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>101.50130040699635</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3849</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>111.09334769631732</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3687</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>84.235615286218632</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>51.228260665590575</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>116.84857606990991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>3779</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>119.46458896699743</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>3791</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>117.72058036893907</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.15097263068655</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.15097263068655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109.87254167767647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.68539498563828</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.33659326602661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.87254167767647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.72058036893907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118.59258466796825</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.13975285515232</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109.69814081787064</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>112.488554574764</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.66295543456984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3792</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116.67417521010407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119.98779154641494</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119.2901881071916</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.58289094913215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>107.08212792078309</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3679</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>105.68692104233642</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>3696</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>110.74454597670565</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>112.66295543456984</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>3808</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>113.36055887379318</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>118.41818380816241</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>3868</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>120.51099412583245</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>3685</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>106.55892534136558</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>108.47733479922978</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>107.25652878058892</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>3706</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>110.91894683651149</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>111.61655027573481</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>3538</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>108.30293393942394</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>109.52373995806479</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>3578</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>3690</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>112.13975285515232</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>115.80217091107488</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>114.93016661204571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1234,86 +1943,266 @@
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1324,118 +2213,310 @@
               <c:f>'Results 1994-1999'!$M$7:$M$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>64.021785706914997</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1182.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>68.452801996168631</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1016.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>54.133986275616806</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>456.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22.977961815583711</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>1208.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>76.308833434568356</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>76.407139155048924</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>74.616811207217083</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>1209.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.560496214461722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1207.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.778873389897186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.943999226408778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1206.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.751271156693207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72.46879619043591</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.546384349517808</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1203.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.777160500454912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1207.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.190572905749377</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1205.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74.456921442041818</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1157.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.290097926395603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1167.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.250966455667751</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1174.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.069536353321297</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1204.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74.733400306207528</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1213.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>73.880118002727684</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74.982961324419634</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1125.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.630140107373961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1179.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66.507572445941406</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1153.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>69.128001407903525</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>1170.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>71.923353153949719</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>1175.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>72.255355790629011</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>1189.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>73.295428886191175</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>1205.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>74.42688791148008</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>1216.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>74.375383879349968</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>1159.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>69.872287844853815</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>1152.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>70.064692735324684</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>1142.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>69.776034628049302</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>1180.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>71.364966127348552</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>1174.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>72.309659935507597</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>1167.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>72.608482743416801</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>1141.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>70.165168259721838</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>70.205226269213199</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>1154.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>71.548693316409611</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>1170.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>73.271159999810564</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>1195.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>74.43469125492517</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>1200.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>73.670028461868952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="81399168"/>
-        <c:axId val="81527936"/>
+        <c:axId val="53157376"/>
+        <c:axId val="84581120"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="81399168"/>
+        <c:axId val="53157376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81527936"/>
+        <c:crossAx val="84581120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81527936"/>
+        <c:axId val="84581120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81399168"/>
+        <c:crossAx val="53157376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1447,7 +2528,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1470,7 +2561,9 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -1646,6 +2739,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1819,6 +2913,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1848,7 +2943,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2011,40 +3112,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="87812352"/>
-        <c:axId val="87687168"/>
+        <c:axId val="584331264"/>
+        <c:axId val="578865408"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="87812352"/>
+        <c:axId val="584331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87687168"/>
+        <c:crossAx val="578865408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87687168"/>
+        <c:axId val="578865408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87812352"/>
+        <c:crossAx val="584331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2056,7 +3174,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2078,7 +3206,9 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -2254,6 +3384,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2427,6 +3558,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2456,7 +3588,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2619,40 +3757,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="87832448"/>
-        <c:axId val="87833984"/>
+        <c:axId val="584333312"/>
+        <c:axId val="578867712"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="87832448"/>
+        <c:axId val="584333312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87833984"/>
+        <c:crossAx val="578867712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87833984"/>
+        <c:axId val="578867712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87832448"/>
+        <c:crossAx val="584333312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2664,8 +3819,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -2684,27 +3850,135 @@
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$49</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2714,31 +3988,140 @@
               <c:f>'Results 1994-1999'!$R$7:$R$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>32.150810051826525</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>33.238300208308033</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>37.520535204470413</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>38.540114965461456</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.724451156668628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.559694726452499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.336199013263247</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.540114965461456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.50095544347937</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.724451156668628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.685291634686529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.355778774254297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2755,27 +4138,135 @@
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$49</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2785,31 +4276,140 @@
               <c:f>'Results 1994-1999'!$S$7:$S$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>101.50130040699635</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3849</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>111.09334769631732</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3687</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>84.235615286218632</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>51.228260665590575</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>116.84857606990991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>3779</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>119.46458896699743</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>3791</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>117.72058036893907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.15097263068655</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.15097263068655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109.87254167767647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.68539498563828</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.33659326602661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.87254167767647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.72058036893907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118.59258466796825</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.13975285515232</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109.69814081787064</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>112.488554574764</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.66295543456984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3792</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116.67417521010407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119.98779154641494</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119.2901881071916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2837,33 +4437,147 @@
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$49</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2873,64 +4587,190 @@
               <c:f>'Results 1994-1999'!$T$7:$T$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>57.799113252337122</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>635.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>61.777822317087249</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>548.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>53.22846164266376</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>238.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>15.83596770142999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>648.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>66.90527710307542</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>646.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>67.820431166876261</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>644.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>66.828639250042826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>649.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.807977774655782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>650.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.780912200108787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>644.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.777287220986366</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>648.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.85701037333115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>649.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.89835017832138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>638.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.825029475364929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>646.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.412894484092334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>648.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.843715093241642</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>647.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.435854178817436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>620.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62.428427601667707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>625.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.631869911194805</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>629.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.441964528872155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>648.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.873569087833317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.679140020726706</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>654.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66.840645985746988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="93571328"/>
-        <c:axId val="97415168"/>
+        <c:axId val="53155840"/>
+        <c:axId val="571892864"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="93571328"/>
+        <c:axId val="53155840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97415168"/>
+        <c:crossAx val="571892864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97415168"/>
+        <c:axId val="571892864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93571328"/>
+        <c:crossAx val="53155840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2942,7 +4782,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2970,11 +4820,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2985,7 +4840,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3001,6 +4860,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3012,88 +4872,275 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3103,98 +5150,287 @@
               <c:f>'Results 1994-1999'!$D$7:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>32.150810051826525</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>42.867746735768698</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>39.805764826070934</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>55.115674374559752</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>53.584683419710871</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>52.053692464861996</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.46071960031535</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50.522701510013114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.522701510013114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50.522701510013114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52.053692464861996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50.522701510013114</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.46071960031535</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.867746735768698</c:v>
+                  <c:v>55.115674374559752</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.398737690617573</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.929728645466469</c:v>
+                  <c:v>53.584683419710871</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.46071960031535</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.053692464861996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.991710555164232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.991710555164232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.584683419710871</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.708647239106398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47.46071960031535</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.398737690617573</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.646665329408634</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.053692464861996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.584683419710871</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.681801006675407</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.805764826070934</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.46071960031535</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52.053692464861996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.46071960031535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.867746735768698</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44.398737690617573</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45.929728645466469</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.46071960031535</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45.929728645466469</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>48.991710555164232</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>48.991710555164232</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>58.177656284257516</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>53.584683419710871</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="100893824"/>
-        <c:axId val="100895360"/>
+        <c:axId val="572092416"/>
+        <c:axId val="571895168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100893824"/>
+        <c:axId val="572092416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3219,17 +5455,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100895360"/>
+        <c:crossAx val="571895168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100895360"/>
+        <c:axId val="571895168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3242,6 +5480,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###.000_-;\-* ###.000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3266,7 +5506,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100893824"/>
+        <c:crossAx val="572092416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3282,6 +5522,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3301,7 +5542,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3329,11 +5580,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3344,7 +5600,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3360,6 +5620,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3371,88 +5632,275 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3462,98 +5910,287 @@
               <c:f>'Results 1994-1999'!$E$7:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>77.008155640850319</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>75.9385979236163</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>58.825674447871783</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.695577172340323</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>93.051521399360809</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>93.051521399360809</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>87.703732813190655</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.842848247658708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.703732813190655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.42550194425452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95.190636833828876</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77.008155640850319</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.495059661488568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86.634175095956621</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.564617378722588</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.42550194425452</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79.147271075318386</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>80.21682879255242</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="35">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.355944227020487</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83.42550194425452</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.286386509786468</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.564617378722588</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.312578468509997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72.729924771914199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80.21682879255242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>84.495059661488568</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>83.42550194425452</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>88.773290530424688</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>86.634175095956621</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>84.495059661488568</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>82.355944227020487</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>85.564617378722588</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>83.42550194425452</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>86.634175095956621</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>88.773290530424688</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>86.634175095956621</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>83.42550194425452</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>79.147271075318386</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>84.495059661488568</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>82.355944227020487</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>89.842848247658708</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>83.42550194425452</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="100961280"/>
-        <c:axId val="100967168"/>
+        <c:axId val="572093952"/>
+        <c:axId val="571896896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100961280"/>
+        <c:axId val="572093952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3578,17 +6215,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100967168"/>
+        <c:crossAx val="571896896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100967168"/>
+        <c:axId val="571896896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3601,6 +6240,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###.000_-;\-* ###.000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3625,7 +6266,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100961280"/>
+        <c:crossAx val="572093952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3641,6 +6282,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3660,7 +6302,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3688,11 +6340,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3703,7 +6360,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3719,6 +6380,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3730,88 +6392,275 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3821,98 +6670,287 @@
               <c:f>'Results 1994-1999'!$F$7:$F$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>58.315883419674044</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>59.571917831790088</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37.232448644868803</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>51.228260665590575</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>64.147471761641441</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>64.10261338978016</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>63.609171299305984</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.147471761641441</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.923179902335001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.340021068138256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.788604786751144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.654029671167287</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.128845027883493</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.743746414889856</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.87832153047372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.506338736531745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.986665007954244</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.923179902335001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.609171299305984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.910064083283331</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.115729208831823</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>63.340021068138256</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.181308304090166</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.155076665986833</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>61.814836424854477</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>63.160587580693111</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>64.012896646057584</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>61.590544565548043</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>62.263420143467364</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>63.295162696276982</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>62.442853630912509</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>63.968038274196289</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>65.313789430034916</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>62.532570374635078</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>63.564312927444703</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>64.192330133502722</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>64.640913852115602</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>64.685772223976898</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>65.134355942589764</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>63.070870836970542</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>64.461480364670464</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>64.371763620947888</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="110806144"/>
-        <c:axId val="110807680"/>
+        <c:axId val="572612608"/>
+        <c:axId val="571898624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="110806144"/>
+        <c:axId val="572612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3937,17 +6975,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110807680"/>
+        <c:crossAx val="571898624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110807680"/>
+        <c:axId val="571898624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3960,6 +7000,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###.000_-;\-* ###.000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3984,7 +7026,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110806144"/>
+        <c:crossAx val="572612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4000,6 +7042,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4019,8 +7062,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="26"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4028,9 +7080,11 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr rot="0" vert="horz"/>
@@ -4043,87 +7097,273 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4133,122 +7373,313 @@
               <c:f>'Results 1994-1999'!$G$7:$G$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>101.50130040699635</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>111.09334769631732</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>84.235615286218632</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40.635400334759709</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>116.84857606990991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>119.46458896699743</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>117.72058036893907</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.15097263068655</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.15097263068655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109.87254167767647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.68539498563828</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.33659326602661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.87254167767647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.72058036893907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118.59258466796825</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.13975285515232</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109.69814081787064</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>112.488554574764</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.66295543456984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116.67417521010407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119.98779154641494</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119.2901881071916</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.58289094913215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>107.08212792078309</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>105.68692104233642</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>110.74454597670565</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>112.66295543456984</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>113.36055887379318</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>118.41818380816241</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>120.51099412583245</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>106.55892534136558</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>108.47733479922978</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>107.25652878058892</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>110.91894683651149</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>111.61655027573481</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>108.30293393942394</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>109.52373995806479</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>112.13975285515232</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>115.80217091107488</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>114.93016661204571</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82201216"/>
-        <c:axId val="82207104"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="572613632"/>
+        <c:axId val="572211776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82201216"/>
+        <c:axId val="572613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82207104"/>
+        <c:crossAx val="572211776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82207104"/>
+        <c:axId val="572211776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82201216"/>
+        <c:crossAx val="572613632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4260,8 +7691,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="26"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4269,92 +7709,280 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β =  0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β =  0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4364,124 +7992,314 @@
               <c:f>'Results 1994-1999'!$H$7:$H$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>51.132779015227761</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3849</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>52.792399793350768</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3687</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50.570428173053855</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12.33057090522794</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>52.380923567369862</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>3779</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>51.832288599395305</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>3791</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>51.996879089787676</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.545514057762219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.531798183562863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.559229931961582</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.038026712385758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.353491818971129</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.243764825376218</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.202617202778129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.394639441569218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.504366435164123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.157693130519391</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.227531318069765</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.789882160243671</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3792</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.010594963987039</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.956990283743139</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.135296648334858</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.392121808462115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.764968044952035</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3679</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>50.460701179458944</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>3696</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>50.69387104084813</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>50.652723418250034</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>3808</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>52.230048951176862</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>52.764968044952035</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>3868</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>53.05300140313868</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>3685</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>50.542996424655122</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>49.445726488706036</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>48.485615294750573</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>51.681413983202312</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>3706</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>50.83102978284176</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>50.076656701876765</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>3538</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>48.52676291734867</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>48.67763753354167</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>3578</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>49.075397885323213</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>3690</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>50.611575795651945</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>51.544255241208667</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>52.038026712385758</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82262656"/>
-        <c:axId val="82280832"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="572614144"/>
+        <c:axId val="572213504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82262656"/>
+        <c:axId val="572614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82280832"/>
+        <c:crossAx val="572213504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82280832"/>
+        <c:axId val="572213504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82262656"/>
+        <c:crossAx val="572614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4493,9 +8311,19 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="6"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -4523,7 +8351,13 @@
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4650,6 +8484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4798,6 +8633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4946,6 +8782,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5094,9 +8931,15 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
         <c:upDownBars>
@@ -5104,28 +8947,32 @@
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
-        <c:axId val="80532224"/>
-        <c:axId val="80533760"/>
+        <c:axId val="572421120"/>
+        <c:axId val="572215232"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="80532224"/>
+        <c:axId val="572421120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80533760"/>
+        <c:crossAx val="572215232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80533760"/>
+        <c:axId val="572215232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
@@ -5150,17 +8997,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80532224"/>
+        <c:crossAx val="572421120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5172,7 +9022,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5195,7 +9055,9 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -5371,6 +9233,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5544,6 +9407,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5573,7 +9437,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5736,40 +9606,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="87763584"/>
-        <c:axId val="87777664"/>
+        <c:axId val="584229888"/>
+        <c:axId val="578863104"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="87763584"/>
+        <c:axId val="584229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87777664"/>
+        <c:crossAx val="578863104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87777664"/>
+        <c:axId val="578863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87763584"/>
+        <c:crossAx val="584229888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6166,7 +10053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="First Table"/>
@@ -6206,9 +10093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6246,7 +10133,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6280,6 +10167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6314,9 +10202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6489,14 +10378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.5703125"/>
     <col min="6" max="6" width="13"/>
@@ -6505,19 +10394,19 @@
     <col min="19" max="19" width="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
@@ -6540,7 +10429,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6564,7 +10453,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -6588,7 +10477,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -6612,7 +10501,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -6636,7 +10525,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -6660,7 +10549,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6670,19 +10559,19 @@
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:12" ht="36" customHeight="1">
-      <c r="B10" s="37" t="s">
+    <row r="10" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -6704,7 +10593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -6728,7 +10617,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -6752,7 +10641,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -6776,7 +10665,7 @@
         <v>8246</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
@@ -6800,7 +10689,7 @@
         <v>7507</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -6824,7 +10713,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6834,19 +10723,19 @@
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
@@ -6869,7 +10758,7 @@
       </c>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -6879,7 +10768,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
@@ -6909,7 +10798,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>7</v>
@@ -6941,7 +10830,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
@@ -6971,7 +10860,7 @@
         <v>-4952</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
@@ -7001,7 +10890,7 @@
         <v>-6357</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
@@ -7043,14 +10932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -7062,7 +10951,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="24" t="s">
         <v>71</v>
@@ -7092,7 +10981,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -7112,7 +11001,7 @@
         <v>0.15104927426661915</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7144,7 +11033,7 @@
         <v>64.021785706914997</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -7176,7 +11065,7 @@
         <v>68.452801996168631</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7208,7 +11097,7 @@
         <v>54.133986275616806</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -7240,7 +11129,7 @@
         <v>22.977961815583711</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -7272,7 +11161,7 @@
         <v>76.832036013985856</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -7304,7 +11193,7 @@
         <v>76.091255533515721</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -7336,7 +11225,7 @@
         <v>74.409492249332772</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -7368,7 +11257,7 @@
         <v>71.581264521478971</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -7400,7 +11289,7 @@
         <v>74.607911624903977</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -7432,7 +11321,7 @@
         <v>76.751271156693207</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>43</v>
       </c>
@@ -7464,7 +11353,7 @@
         <v>70.290097926395603</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>44</v>
       </c>
@@ -7496,7 +11385,7 @@
         <v>70.250966455667751</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>45</v>
       </c>
@@ -7528,7 +11417,7 @@
         <v>71.069536353321297</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>46</v>
       </c>
@@ -7560,7 +11449,7 @@
         <v>74.733400306207528</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
@@ -7592,7 +11481,7 @@
         <v>73.880118002727684</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>48</v>
       </c>
@@ -7624,7 +11513,7 @@
         <v>74.982961324419634</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -7656,7 +11545,7 @@
         <v>61.630140107373961</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -7688,7 +11577,7 @@
         <v>66.507572445941406</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>65</v>
       </c>
@@ -7720,7 +11609,7 @@
         <v>71.171228153483696</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>66</v>
       </c>
@@ -7752,7 +11641,7 @@
         <v>72.300588030597723</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>67</v>
       </c>
@@ -7784,7 +11673,7 @@
         <v>72.52601474736386</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>68</v>
       </c>
@@ -7816,7 +11705,7 @@
         <v>75.792562808614363</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>69</v>
       </c>
@@ -7848,7 +11737,7 @@
         <v>75.839746099678493</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>70</v>
       </c>
@@ -7887,14 +11776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7902,14 +11791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7917,14 +11806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7932,21 +11821,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="30" t="s">
         <v>74</v>
       </c>
@@ -7954,7 +11843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>76</v>
       </c>
@@ -7962,7 +11851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>77</v>
       </c>
@@ -7970,7 +11859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>78</v>
       </c>
@@ -7978,7 +11867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>79</v>
       </c>
@@ -7986,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>80</v>
       </c>
@@ -7994,7 +11883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>81</v>
       </c>
@@ -8002,7 +11891,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>81</v>
       </c>
@@ -8010,7 +11899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>81</v>
       </c>
@@ -8018,7 +11907,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>82</v>
       </c>
@@ -8033,14 +11922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -8053,32 +11942,32 @@
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="3:20">
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="3:20">
-      <c r="N3" s="39" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N3" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="R3" s="39" t="s">
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="R3" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-    </row>
-    <row r="4" spans="3:20">
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
@@ -8131,68 +12020,68 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:20">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <f>( 'First Table'!I12 / ( ( ('First Table'!G12 * ('First Table'!G12 - 1))/2) - 'First Table'!H12) *100)</f>
         <v>0.14107380628098368</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="38">
         <f>( 'First Table'!I13 / ( ( ('First Table'!G13 * ('First Table'!G13 - 1))/2) - 'First Table'!H13)*100)</f>
         <v>7.2309814841016284E-2</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="38">
         <f>( 'First Table'!I14 / ( ( ('First Table'!G14 * ('First Table'!G14 - 1))/2) - 'First Table'!H14)*100)</f>
         <v>0.27034177613169963</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="38">
         <f>( 'First Table'!I15 / ( ( ('First Table'!G15 * ('First Table'!G15 - 1))/2) - 'First Table'!H15)*100 )</f>
         <v>7.6380933601495837E-2</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="37">
         <f>( 'First Table'!I16 / ( ( ('First Table'!G16 * ('First Table'!G16 - 1))/2) - 'First Table'!H16) *100)</f>
         <v>0.19514004047790037</v>
       </c>
     </row>
-    <row r="6" spans="3:20" hidden="1" outlineLevel="2">
+    <row r="6" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="33">
         <v>21</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="39">
         <v>72</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="39">
         <v>1300</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <v>582</v>
       </c>
       <c r="H6" s="33">
         <v>3728</v>
       </c>
     </row>
-    <row r="7" spans="3:20" collapsed="1">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <f>((D6/ 'First Table'!I12  )*100)/D5</f>
         <v>32.150810051826525</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="39">
         <f>((E6/   'First Table'!I13    )*100)/E5</f>
         <v>77.008155640850319</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="39">
         <f>((F6/   'First Table'!I14    )*100)/F5</f>
         <v>58.315883419674044</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="39">
         <f>((G6/   'First Table'!I15    )*100)/G5</f>
         <v>101.50130040699635</v>
       </c>
@@ -8241,20 +12130,20 @@
         <v>57.799113252337122</v>
       </c>
     </row>
-    <row r="8" spans="3:20" hidden="1" outlineLevel="2">
+    <row r="8" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C8" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="33">
         <v>28</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="39">
         <v>71</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="39">
         <v>1328</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <v>637</v>
       </c>
       <c r="H8" s="33">
@@ -8301,7 +12190,7 @@
         <v>635.6</v>
       </c>
     </row>
-    <row r="9" spans="3:20" collapsed="1">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="35" t="s">
         <v>17</v>
       </c>
@@ -8309,15 +12198,15 @@
         <f>((D8/ 'First Table'!I12  )*100)/D5</f>
         <v>42.867746735768698</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="39">
         <f>((E8/   'First Table'!I13    )*100)/E5</f>
         <v>75.9385979236163</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="39">
         <f>((F8/   'First Table'!I14    )*100)/F5</f>
         <v>59.571917831790088</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="39">
         <f>((G8/ 'First Table'!I15  )*100)/G5</f>
         <v>111.09334769631732</v>
       </c>
@@ -8366,20 +12255,20 @@
         <v>61.777822317087249</v>
       </c>
     </row>
-    <row r="10" spans="3:20" hidden="1" outlineLevel="2">
+    <row r="10" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="33">
         <v>26</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="39">
         <v>55</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="39">
         <v>830</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <v>483</v>
       </c>
       <c r="H10" s="33">
@@ -8426,7 +12315,7 @@
         <v>548.6</v>
       </c>
     </row>
-    <row r="11" spans="3:20" collapsed="1">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
@@ -8434,15 +12323,15 @@
         <f>((D10/ 'First Table'!I12  )*100)/D5</f>
         <v>39.805764826070934</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="39">
         <f>((E10/   'First Table'!I13    )*100)/E5</f>
         <v>58.825674447871783</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="39">
         <f>((F10/   'First Table'!I14    )*100)/F5</f>
         <v>37.232448644868803</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="39">
         <f>((G10/ 'First Table'!I15  )*100)/G5</f>
         <v>84.235615286218632</v>
       </c>
@@ -8491,20 +12380,20 @@
         <v>53.22846164266376</v>
       </c>
     </row>
-    <row r="12" spans="3:20" hidden="1" outlineLevel="2">
+    <row r="12" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <v>10</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="39">
         <v>1142</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <v>233</v>
       </c>
       <c r="H12" s="33">
@@ -8551,7 +12440,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="13" spans="3:20" collapsed="1">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="35" t="s">
         <v>21</v>
       </c>
@@ -8559,15 +12448,15 @@
         <f>((D12/ 'First Table'!I12  )*100)/D5</f>
         <v>0</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="39">
         <f>((E12/   'First Table'!I13    )*100)/E5</f>
         <v>10.695577172340323</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="39">
         <f>((F12/   'First Table'!I14    )*100)/F5</f>
         <v>51.228260665590575</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="39">
         <f>((G12/ 'First Table'!I15  )*100)/G5</f>
         <v>40.635400334759709</v>
       </c>
@@ -8616,7 +12505,7 @@
         <v>15.83596770142999</v>
       </c>
     </row>
-    <row r="14" spans="3:20" ht="13.5" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="14" spans="3:20" ht="13.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" s="35" t="s">
         <v>24</v>
       </c>
@@ -8676,7 +12565,7 @@
         <v>648.5</v>
       </c>
     </row>
-    <row r="15" spans="3:20" ht="13.5" customHeight="1" collapsed="1">
+    <row r="15" spans="3:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
         <v>39</v>
       </c>
@@ -8741,7 +12630,7 @@
         <v>66.90527710307542</v>
       </c>
     </row>
-    <row r="16" spans="3:20" hidden="1" outlineLevel="2">
+    <row r="16" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C16" s="31" t="s">
         <v>23</v>
       </c>
@@ -8801,7 +12690,7 @@
         <v>646.70000000000005</v>
       </c>
     </row>
-    <row r="17" spans="3:20" collapsed="1">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="31" t="s">
         <v>38</v>
       </c>
@@ -8866,20 +12755,20 @@
         <v>67.820431166876261</v>
       </c>
     </row>
-    <row r="18" spans="3:20" hidden="1" outlineLevel="2">
+    <row r="18" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="33">
         <v>34</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="39">
         <v>82</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="39">
         <v>1418</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="39">
         <v>675</v>
       </c>
       <c r="H18" s="33">
@@ -8926,7 +12815,7 @@
         <v>644.6</v>
       </c>
     </row>
-    <row r="19" spans="3:20" collapsed="1">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="35" t="s">
         <v>37</v>
       </c>
@@ -8934,15 +12823,15 @@
         <f>((D18/ 'First Table'!I12  )*100)/D5</f>
         <v>52.053692464861996</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="39">
         <f>((E18/   'First Table'!I13   )*100)/E5</f>
         <v>87.703732813190655</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="39">
         <f>((F18/   'First Table'!I14    )*100)/F5</f>
         <v>63.609171299305984</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="39">
         <f>((G18/ 'First Table'!I15  )*100)/G5</f>
         <v>117.72058036893907</v>
       </c>
@@ -8991,7 +12880,7 @@
         <v>66.828639250042826</v>
       </c>
     </row>
-    <row r="20" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="20" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
@@ -9051,8 +12940,8 @@
         <v>649.29999999999995</v>
       </c>
     </row>
-    <row r="21" spans="3:20" hidden="1" collapsed="1">
-      <c r="C21" s="40" t="s">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="36" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="33">
@@ -9117,7 +13006,7 @@
         <v>66.807977774655782</v>
       </c>
     </row>
-    <row r="22" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="22" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35" t="s">
         <v>90</v>
       </c>
@@ -9178,7 +13067,7 @@
         <v>650.1</v>
       </c>
     </row>
-    <row r="23" spans="3:20" hidden="1" collapsed="1">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="35" t="s">
         <v>91</v>
       </c>
@@ -9244,7 +13133,7 @@
         <v>67.780912200108787</v>
       </c>
     </row>
-    <row r="24" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="24" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35" t="s">
         <v>92</v>
       </c>
@@ -9305,7 +13194,7 @@
         <v>644.4</v>
       </c>
     </row>
-    <row r="25" spans="3:20" hidden="1" collapsed="1">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="35" t="s">
         <v>93</v>
       </c>
@@ -9371,7 +13260,7 @@
         <v>65.777287220986366</v>
       </c>
     </row>
-    <row r="26" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="26" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35" t="s">
         <v>94</v>
       </c>
@@ -9432,7 +13321,7 @@
         <v>648.9</v>
       </c>
     </row>
-    <row r="27" spans="3:20" hidden="1" collapsed="1">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="35" t="s">
         <v>95</v>
       </c>
@@ -9498,7 +13387,7 @@
         <v>68.85701037333115</v>
       </c>
     </row>
-    <row r="28" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="28" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35" t="s">
         <v>96</v>
       </c>
@@ -9511,7 +13400,7 @@
       <c r="F28" s="33">
         <v>1419</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <v>690</v>
       </c>
       <c r="H28" s="33">
@@ -9559,7 +13448,7 @@
         <v>649.1</v>
       </c>
     </row>
-    <row r="29" spans="3:20" hidden="1" collapsed="1">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="35" t="s">
         <v>97</v>
       </c>
@@ -9625,7 +13514,7 @@
         <v>66.89835017832138</v>
       </c>
     </row>
-    <row r="30" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="30" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35" t="s">
         <v>98</v>
       </c>
@@ -9638,7 +13527,7 @@
       <c r="F30" s="33">
         <v>1385</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <v>630</v>
       </c>
       <c r="H30" s="33">
@@ -9686,7 +13575,7 @@
         <v>638.9</v>
       </c>
     </row>
-    <row r="31" spans="3:20" hidden="1" collapsed="1">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="35" t="s">
         <v>99</v>
       </c>
@@ -9752,7 +13641,7 @@
         <v>64.825029475364929</v>
       </c>
     </row>
-    <row r="32" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="32" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
         <v>100</v>
       </c>
@@ -9813,7 +13702,7 @@
         <v>646.70000000000005</v>
       </c>
     </row>
-    <row r="33" spans="3:20" hidden="1" collapsed="1">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="35" t="s">
         <v>101</v>
       </c>
@@ -9879,7 +13768,7 @@
         <v>67.412894484092334</v>
       </c>
     </row>
-    <row r="34" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="34" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35" t="s">
         <v>102</v>
       </c>
@@ -9940,7 +13829,7 @@
         <v>648.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="3:20" hidden="1" collapsed="1">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="35" t="s">
         <v>103</v>
       </c>
@@ -10006,7 +13895,7 @@
         <v>66.843715093241642</v>
       </c>
     </row>
-    <row r="36" spans="3:20" hidden="1" outlineLevel="1">
+    <row r="36" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35" t="s">
         <v>104</v>
       </c>
@@ -10067,7 +13956,7 @@
         <v>647.4</v>
       </c>
     </row>
-    <row r="37" spans="3:20" hidden="1" collapsed="1">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="35" t="s">
         <v>105</v>
       </c>
@@ -10133,8 +14022,8 @@
         <v>66.435854178817436</v>
       </c>
     </row>
-    <row r="38" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C38" s="40" t="s">
+    <row r="38" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="33">
@@ -10193,8 +14082,8 @@
         <v>620.9</v>
       </c>
     </row>
-    <row r="39" spans="3:20" hidden="1" collapsed="1">
-      <c r="C39" s="40" t="s">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C39" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="33">
@@ -10258,8 +14147,8 @@
         <v>62.428427601667707</v>
       </c>
     </row>
-    <row r="40" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C40" s="40" t="s">
+    <row r="40" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C40" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="33">
@@ -10318,8 +14207,8 @@
         <v>625.79999999999995</v>
       </c>
     </row>
-    <row r="41" spans="3:20" hidden="1" collapsed="1">
-      <c r="C41" s="40" t="s">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="33">
@@ -10383,8 +14272,8 @@
         <v>62.631869911194805</v>
       </c>
     </row>
-    <row r="42" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C42" s="40" t="s">
+    <row r="42" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C42" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="33">
@@ -10443,8 +14332,8 @@
         <v>629.20000000000005</v>
       </c>
     </row>
-    <row r="43" spans="3:20" hidden="1" collapsed="1">
-      <c r="C43" s="40" t="s">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="33">
@@ -10508,8 +14397,8 @@
         <v>63.441964528872155</v>
       </c>
     </row>
-    <row r="44" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C44" s="40" t="s">
+    <row r="44" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C44" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="33">
@@ -10568,8 +14457,8 @@
         <v>648.6</v>
       </c>
     </row>
-    <row r="45" spans="3:20" hidden="1" collapsed="1">
-      <c r="C45" s="40" t="s">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C45" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="33">
@@ -10633,8 +14522,8 @@
         <v>66.873569087833317</v>
       </c>
     </row>
-    <row r="46" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C46" s="40" t="s">
+    <row r="46" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C46" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="33">
@@ -10693,8 +14582,8 @@
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="3:20" hidden="1" collapsed="1">
-      <c r="C47" s="40" t="s">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D47" s="33">
@@ -10758,8 +14647,8 @@
         <v>66.679140020726706</v>
       </c>
     </row>
-    <row r="48" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C48" s="40" t="s">
+    <row r="48" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C48" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="33">
@@ -10818,8 +14707,8 @@
         <v>654.20000000000005</v>
       </c>
     </row>
-    <row r="49" spans="3:20" hidden="1" collapsed="1">
-      <c r="C49" s="40" t="s">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="33">
@@ -10883,8 +14772,8 @@
         <v>66.840645985746988</v>
       </c>
     </row>
-    <row r="50" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C50" s="40" t="s">
+    <row r="50" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="33">
@@ -10931,7 +14820,7 @@
         <v>562.6</v>
       </c>
     </row>
-    <row r="51" spans="3:20" hidden="1" collapsed="1">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="35" t="s">
         <v>49</v>
       </c>
@@ -10996,8 +14885,8 @@
         <v>56.309986934508949</v>
       </c>
     </row>
-    <row r="52" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C52" s="40" t="s">
+    <row r="52" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="33">
@@ -11056,7 +14945,7 @@
         <v>634.6</v>
       </c>
     </row>
-    <row r="53" spans="3:20" hidden="1" collapsed="1">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="35" t="s">
         <v>50</v>
       </c>
@@ -11121,8 +15010,8 @@
         <v>61.126513553899898</v>
       </c>
     </row>
-    <row r="54" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C54" s="40" t="s">
+    <row r="54" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C54" s="36" t="s">
         <v>106</v>
       </c>
       <c r="D54" s="33">
@@ -11161,7 +15050,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="55" spans="3:20" collapsed="1">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="35" t="s">
         <v>107</v>
       </c>
@@ -11206,8 +15095,8 @@
         <v>9.4921439200630697</v>
       </c>
     </row>
-    <row r="56" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C56" s="40" t="s">
+    <row r="56" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C56" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="33">
@@ -11246,7 +15135,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="57" spans="3:20" collapsed="1">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="35" t="s">
         <v>109</v>
       </c>
@@ -11291,8 +15180,8 @@
         <v>10.104540302002622</v>
       </c>
     </row>
-    <row r="58" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C58" s="40" t="s">
+    <row r="58" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C58" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D58" s="33">
@@ -11331,7 +15220,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="59" spans="3:20" collapsed="1">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59" s="35" t="s">
         <v>111</v>
       </c>
@@ -11376,8 +15265,8 @@
         <v>10.104540302002622</v>
       </c>
     </row>
-    <row r="60" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C60" s="40" t="s">
+    <row r="60" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C60" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D60" s="33">
@@ -11416,7 +15305,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="61" spans="3:20" collapsed="1">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61" s="35" t="s">
         <v>113</v>
       </c>
@@ -11461,8 +15350,8 @@
         <v>10.104540302002622</v>
       </c>
     </row>
-    <row r="62" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C62" s="40" t="s">
+    <row r="62" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C62" s="36" t="s">
         <v>114</v>
       </c>
       <c r="D62" s="33">
@@ -11501,7 +15390,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="63" spans="3:20" collapsed="1">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63" s="35" t="s">
         <v>115</v>
       </c>
@@ -11546,8 +15435,8 @@
         <v>10.410738492972399</v>
       </c>
     </row>
-    <row r="64" spans="3:20" hidden="1" outlineLevel="2">
-      <c r="C64" s="40" t="s">
+    <row r="64" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C64" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D64" s="33">
@@ -11586,7 +15475,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="65" spans="3:14" collapsed="1">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="31" t="s">
         <v>117</v>
       </c>
@@ -11631,7 +15520,7 @@
         <v>10.104540302002622</v>
       </c>
     </row>
-    <row r="66" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="66" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C66" s="35" t="s">
         <v>106</v>
       </c>
@@ -11671,7 +15560,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="67" spans="3:14" collapsed="1">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="35" t="s">
         <v>118</v>
       </c>
@@ -11716,8 +15605,8 @@
         <v>9.4921439200630697</v>
       </c>
     </row>
-    <row r="68" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C68" s="40" t="s">
+    <row r="68" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C68" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D68" s="33">
@@ -11756,7 +15645,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="69" spans="3:14" collapsed="1">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69" s="35" t="s">
         <v>119</v>
       </c>
@@ -11801,8 +15690,8 @@
         <v>8.5735493471537403</v>
       </c>
     </row>
-    <row r="70" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C70" s="40" t="s">
+    <row r="70" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C70" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="33">
@@ -11841,7 +15730,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="71" spans="3:14" collapsed="1">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="35" t="s">
         <v>120</v>
       </c>
@@ -11886,8 +15775,8 @@
         <v>8.8797475381235138</v>
       </c>
     </row>
-    <row r="72" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C72" s="40" t="s">
+    <row r="72" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C72" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D72" s="33">
@@ -11926,7 +15815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="3:14" collapsed="1">
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="35" t="s">
         <v>121</v>
       </c>
@@ -11971,8 +15860,8 @@
         <v>9.1859457290932944</v>
       </c>
     </row>
-    <row r="74" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C74" s="40" t="s">
+    <row r="74" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C74" s="36" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="33">
@@ -12011,7 +15900,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="75" spans="3:14" collapsed="1">
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="35" t="s">
         <v>122</v>
       </c>
@@ -12056,8 +15945,8 @@
         <v>9.4921439200630697</v>
       </c>
     </row>
-    <row r="76" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C76" s="40" t="s">
+    <row r="76" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D76" s="33">
@@ -12096,7 +15985,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="77" spans="3:14" collapsed="1">
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77" s="35" t="s">
         <v>123</v>
       </c>
@@ -12141,7 +16030,7 @@
         <v>10.015331340375353</v>
       </c>
     </row>
-    <row r="78" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="78" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C78" s="35" t="s">
         <v>106</v>
       </c>
@@ -12181,7 +16070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:14" collapsed="1">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C79" s="35" t="s">
         <v>124</v>
       </c>
@@ -12226,8 +16115,8 @@
         <v>9.1859457290932944</v>
       </c>
     </row>
-    <row r="80" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C80" s="40" t="s">
+    <row r="80" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C80" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D80" s="33">
@@ -12266,7 +16155,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="81" spans="3:14" collapsed="1">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81" s="35" t="s">
         <v>125</v>
       </c>
@@ -12311,8 +16200,8 @@
         <v>9.7355275067083333</v>
       </c>
     </row>
-    <row r="82" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C82" s="40" t="s">
+    <row r="82" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C82" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D82" s="33">
@@ -12351,7 +16240,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="83" spans="3:14" collapsed="1">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C83" s="31" t="s">
         <v>126</v>
       </c>
@@ -12396,8 +16285,8 @@
         <v>9.7983421110328468</v>
       </c>
     </row>
-    <row r="84" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C84" s="40" t="s">
+    <row r="84" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D84" s="33">
@@ -12436,7 +16325,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="85" spans="3:14" collapsed="1">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85" s="31" t="s">
         <v>127</v>
       </c>
@@ -12481,8 +16370,8 @@
         <v>10.122315159130389</v>
       </c>
     </row>
-    <row r="86" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C86" s="40" t="s">
+    <row r="86" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C86" s="36" t="s">
         <v>114</v>
       </c>
       <c r="D86" s="33">
@@ -12521,7 +16410,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="87" spans="3:14" collapsed="1">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87" s="35" t="s">
         <v>128</v>
       </c>
@@ -12566,8 +16455,8 @@
         <v>10.104540302002622</v>
       </c>
     </row>
-    <row r="88" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C88" s="40" t="s">
+    <row r="88" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C88" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D88" s="33">
@@ -12606,7 +16495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="3:14" collapsed="1">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89" s="35" t="s">
         <v>129</v>
       </c>
@@ -12651,7 +16540,7 @@
         <v>10.407605342477151</v>
       </c>
     </row>
-    <row r="90" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="90" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C90" s="20" t="s">
         <v>34</v>
       </c>
@@ -12665,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:14" hidden="1" collapsed="1">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91" s="20" t="s">
         <v>34</v>
       </c>
@@ -12707,14 +16596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12723,14 +16612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12739,14 +16628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12755,17 +16644,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="12" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1"/>
+    <row r="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12774,14 +16663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12790,20 +16679,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7:M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:13">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>51</v>
       </c>
@@ -12811,7 +16700,7 @@
         <v>0.15277538017018943</v>
       </c>
     </row>
-    <row r="7" spans="5:13">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>15</v>
       </c>
@@ -12822,7 +16711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -12834,7 +16723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -12845,7 +16734,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -12857,7 +16746,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>39</v>
       </c>
@@ -12871,7 +16760,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>38</v>
       </c>
@@ -12883,7 +16772,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>37</v>
       </c>
@@ -12897,7 +16786,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="5:13">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>40</v>
       </c>
@@ -12909,7 +16798,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="5:13">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>41</v>
       </c>
@@ -12923,7 +16812,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="5:13">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>42</v>
       </c>
@@ -12935,7 +16824,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="5:13">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>43</v>
       </c>
@@ -12949,7 +16838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="5:13">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>44</v>
       </c>
@@ -12961,7 +16850,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="5:13">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>45</v>
       </c>
@@ -12975,7 +16864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="5:13">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>46</v>
       </c>
@@ -12987,7 +16876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="5:13">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>47</v>
       </c>
@@ -13001,7 +16890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="5:13">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>48</v>
       </c>
@@ -13013,7 +16902,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:13">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>49</v>
       </c>
@@ -13027,7 +16916,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="5:13">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>50</v>
       </c>
@@ -13039,7 +16928,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:13">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>35.073543778091903</v>
       </c>
@@ -13047,13 +16936,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="5:13">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M26" s="19" t="e">
         <f>((M25/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:13">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>39.967526630848923</v>
       </c>
@@ -13061,13 +16950,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="5:13">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M28" s="19" t="e">
         <f>((M27/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="5:13">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>39.967526630848923</v>
       </c>
@@ -13075,13 +16964,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="5:13">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M30" s="19" t="e">
         <f>((M29/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="5:13">
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>39.355778774254297</v>
       </c>
@@ -13089,13 +16978,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="5:13">
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M32" s="19" t="e">
         <f>((M31/   '[1]First Table'!I27    )*100)/'Results 1994-1999'!I15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="8:13">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>39.763610678650707</v>
       </c>
@@ -13103,13 +16992,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="8:13">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M34" s="19" t="e">
         <f>((M33/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="8:13">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>36.297039491281161</v>
       </c>
@@ -13117,40 +17006,40 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="8:13">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M36" s="19" t="e">
         <f>((M35/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="8:13">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M37" s="19">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="8:13">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M38" s="19" t="e">
         <f>((M37/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="8:13">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M39" s="19">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="8:13">
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M40" s="19" t="e">
         <f>((M39/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="8:13">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M41" s="19">
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="8:13">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M42" s="19" t="e">
         <f>((M41/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
         <v>#DIV/0!</v>
@@ -13162,14 +17051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:U29"/>
   <sheetViews>
     <sheetView topLeftCell="D22" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -13180,7 +17069,7 @@
     <col min="14" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>56</v>
       </c>
@@ -13194,7 +17083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>52</v>
       </c>
@@ -13211,7 +17100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>53</v>
       </c>
@@ -13228,7 +17117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -13245,7 +17134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>55</v>
       </c>
@@ -13262,7 +17151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="3:21">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>60</v>
       </c>
@@ -13318,7 +17207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:21">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -13377,7 +17266,7 @@
         <v>36.297039491281161</v>
       </c>
     </row>
-    <row r="27" spans="3:21">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>57</v>
       </c>
@@ -13436,7 +17325,7 @@
         <v>107.08212792078309</v>
       </c>
     </row>
-    <row r="28" spans="3:21">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -13495,7 +17384,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="3:21">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>59</v>
       </c>

--- a/PredLig/src/Documentation/Resultados/2005_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/2005_resultadoCompleto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="4695" windowHeight="8040"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="4695" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Results 1994-1999" sheetId="2" r:id="rId2"/>
+    <sheet name="Results 2000 - 2005" sheetId="2" r:id="rId2"/>
     <sheet name="GR-QC" sheetId="3" r:id="rId3"/>
     <sheet name="HEP-TH" sheetId="4" r:id="rId4"/>
     <sheet name="HEP-PH" sheetId="5" r:id="rId5"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="134">
   <si>
     <t>Article Data</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t xml:space="preserve">CTwAA (β = 0.2, α = 0.2) </t>
+  </si>
+  <si>
+    <t>WCN (Total Success)</t>
+  </si>
+  <si>
+    <t>WCN</t>
+  </si>
+  <si>
+    <t>WAA (Total Success)</t>
+  </si>
+  <si>
+    <t>WAA</t>
   </si>
 </sst>
 </file>
@@ -874,9 +886,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$93</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1007,123 +1019,135 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1131,10 +1155,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$K$7:$K$89</c:f>
+              <c:f>'Results 2000 - 2005'!$K$7:$K$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>32.150810051826525</c:v>
                 </c:pt>
@@ -1265,34 +1289,34 @@
                   <c:v>53.135296648334858</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>346.97970474834108</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5980</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>364.4444888149954</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>33.681801006675407</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>39.805764826070934</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>47.46071960031535</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.522701510013114</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>33</c:v>
@@ -1301,10 +1325,10 @@
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>52.053692464861996</c:v>
+                  <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>33</c:v>
@@ -1313,75 +1337,87 @@
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.053692464861996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>42.867746735768698</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>44.398737690617573</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>50.076656701876765</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>48.67763753354167</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>48.991710555164232</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>50.611575795651945</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>52.038026712385758</c:v>
                 </c:pt>
               </c:numCache>
@@ -1402,9 +1438,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$93</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1535,123 +1571,135 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1659,10 +1707,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$L$7:$L$89</c:f>
+              <c:f>'Results 2000 - 2005'!$L$7:$L$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>101.50130040699635</c:v>
                 </c:pt>
@@ -1793,123 +1841,135 @@
                   <c:v>119.2901881071916</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.929728645466469</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>3674</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>99.58289094913215</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>3847</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>107.08212792078309</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>3679</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>105.68692104233642</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>3696</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>110.74454597670565</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>3693</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>112.66295543456984</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>3808</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>113.36055887379318</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>3847</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>118.41818380816241</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>3868</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>120.51099412583245</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>3685</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>106.55892534136558</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>3605</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>108.47733479922978</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>3535</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>107.25652878058892</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>3768</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>3706</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>110.91894683651149</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>3651</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>111.61655027573481</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>3538</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>108.30293393942394</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>3549</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>109.52373995806479</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>3578</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>3690</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>112.13975285515232</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>3758</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>115.80217091107488</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>3794</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>114.93016661204571</c:v>
                 </c:pt>
               </c:numCache>
@@ -1953,9 +2013,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$93</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -2086,123 +2146,135 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -2210,10 +2282,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$M$7:$M$89</c:f>
+              <c:f>'Results 2000 - 2005'!$M$7:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>64.021785706914997</c:v>
                 </c:pt>
@@ -2344,123 +2416,135 @@
                   <c:v>74.982961324419634</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106.21012362175391</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116.3253734904924</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1125.2</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>61.630140107373961</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>1179.2</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>66.507572445941406</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>1153.8</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>69.128001407903525</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>1170.2</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>71.923353153949719</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>1175.4000000000001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>72.255355790629011</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>1189.4000000000001</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>73.295428886191175</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>1205.8</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>74.42688791148008</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>1216.4000000000001</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>74.375383879349968</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>1159.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>69.872287844853815</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>1152.2</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>70.064692735324684</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>1142.5999999999999</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>69.776034628049302</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>1180.8</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>71.364966127348552</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>1174.5999999999999</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>72.309659935507597</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>1167.2</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>72.608482743416801</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>1141.5999999999999</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>70.165168259721838</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>1145</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>70.205226269213199</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>1154.4000000000001</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>71.548693316409611</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>1170.8</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>73.271159999810564</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>1195.2</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>74.43469125492517</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>1200.2</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>73.670028461868952</c:v>
                 </c:pt>
               </c:numCache>
@@ -2477,11 +2561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="53157376"/>
-        <c:axId val="84581120"/>
+        <c:axId val="51112960"/>
+        <c:axId val="556259520"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="53157376"/>
+        <c:axId val="51112960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84581120"/>
+        <c:crossAx val="556259520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2498,7 +2582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84581120"/>
+        <c:axId val="556259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53157376"/>
+        <c:crossAx val="51112960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="584331264"/>
-        <c:axId val="578865408"/>
+        <c:axId val="601224192"/>
+        <c:axId val="575416576"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="584331264"/>
+        <c:axId val="601224192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,7 +3220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578865408"/>
+        <c:crossAx val="575416576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3144,7 +3228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="578865408"/>
+        <c:axId val="575416576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584331264"/>
+        <c:crossAx val="601224192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3768,11 +3852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="584333312"/>
-        <c:axId val="578867712"/>
+        <c:axId val="561255424"/>
+        <c:axId val="575418880"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="584333312"/>
+        <c:axId val="561255424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578867712"/>
+        <c:crossAx val="575418880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3789,7 +3873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="578867712"/>
+        <c:axId val="575418880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584333312"/>
+        <c:crossAx val="561255424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3848,7 +3932,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$49</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
@@ -3985,7 +4069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$R$7:$R$49</c:f>
+              <c:f>'Results 2000 - 2005'!$R$7:$R$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="43"/>
@@ -4136,7 +4220,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$49</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
@@ -4273,7 +4357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$S$7:$S$49</c:f>
+              <c:f>'Results 2000 - 2005'!$S$7:$S$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="43"/>
@@ -4447,7 +4531,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$49</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
@@ -4584,7 +4668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$T$7:$T$49</c:f>
+              <c:f>'Results 2000 - 2005'!$T$7:$T$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="43"/>
@@ -4731,11 +4815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="53155840"/>
-        <c:axId val="571892864"/>
+        <c:axId val="86302720"/>
+        <c:axId val="561473216"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="53155840"/>
+        <c:axId val="86302720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4744,7 +4828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571892864"/>
+        <c:crossAx val="561473216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4752,7 +4836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571892864"/>
+        <c:axId val="561473216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53155840"/>
+        <c:crossAx val="86302720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4884,9 +4968,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -5017,129 +5101,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -5147,10 +5243,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$D$7:$D$91</c:f>
+              <c:f>'Results 2000 - 2005'!$D$7:$D$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>32.150810051826525</c:v>
                 </c:pt>
@@ -5281,34 +5377,34 @@
                   <c:v>53.584683419710871</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.929728645466469</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>33.681801006675407</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>39.805764826070934</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>47.46071960031535</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.522701510013114</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>33</c:v>
@@ -5317,10 +5413,10 @@
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>52.053692464861996</c:v>
+                  <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>33</c:v>
@@ -5329,78 +5425,90 @@
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.053692464861996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.522701510013114</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>42.867746735768698</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>44.398737690617573</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>47.46071960031535</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>45.929728645466469</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>48.991710555164232</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>48.991710555164232</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>58.177656284257516</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>50.522701510013114</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>53.584683419710871</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5417,12 +5525,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="572092416"/>
-        <c:axId val="571895168"/>
+        <c:axId val="538610176"/>
+        <c:axId val="561477248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="572092416"/>
+        <c:axId val="538610176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,7 +5563,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571895168"/>
+        <c:crossAx val="561477248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5463,7 +5571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571895168"/>
+        <c:axId val="561477248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5506,7 +5614,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572092416"/>
+        <c:crossAx val="538610176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5644,9 +5752,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -5777,129 +5885,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -5907,10 +6027,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$E$7:$E$91</c:f>
+              <c:f>'Results 2000 - 2005'!$E$7:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>77.008155640850319</c:v>
                 </c:pt>
@@ -6041,82 +6161,82 @@
                   <c:v>85.564617378722588</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83.42550194425452</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>83.42550194425452</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>66.312578468509997</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>72.729924771914199</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>80.21682879255242</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>84.495059661488568</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>83.42550194425452</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>88.773290530424688</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>86.634175095956621</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>84.495059661488568</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>82.355944227020487</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>85.564617378722588</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>83.42550194425452</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>86.634175095956621</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>88.773290530424688</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>81</c:v>
@@ -6125,42 +6245,54 @@
                   <c:v>86.634175095956621</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>88.773290530424688</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>86.634175095956621</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>83.42550194425452</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>79.147271075318386</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>84.495059661488568</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>82.355944227020487</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>89.842848247658708</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>83.42550194425452</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6177,12 +6309,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="572093952"/>
-        <c:axId val="571896896"/>
+        <c:axId val="555505664"/>
+        <c:axId val="563970624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="572093952"/>
+        <c:axId val="555505664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,7 +6347,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571896896"/>
+        <c:crossAx val="563970624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6223,7 +6355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571896896"/>
+        <c:axId val="563970624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6266,7 +6398,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572093952"/>
+        <c:crossAx val="555505664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,9 +6536,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -6537,129 +6669,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -6667,10 +6811,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$F$7:$F$91</c:f>
+              <c:f>'Results 2000 - 2005'!$F$7:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>58.315883419674044</c:v>
                 </c:pt>
@@ -6801,126 +6945,138 @@
                   <c:v>63.340021068138256</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.186819218796444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61.68026130927062</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1297</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>58.181308304090166</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>1341</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>60.155076665986833</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>1378</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>61.814836424854477</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>1408</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>63.160587580693111</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>1427</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>64.012896646057584</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>1373</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>61.590544565548043</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>1388</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>62.263420143467364</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>1411</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>63.295162696276982</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>1392</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>62.442853630912509</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>1426</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>63.968038274196289</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>1456</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>65.313789430034916</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>1394</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>62.532570374635078</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>1417</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>63.564312927444703</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>1431</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>64.192330133502722</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>1441</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>64.640913852115602</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>1442</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>64.685772223976898</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>1452</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>65.134355942589764</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>1406</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>63.070870836970542</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>1437</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>64.461480364670464</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>1435</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>64.371763620947888</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6937,12 +7093,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="572612608"/>
-        <c:axId val="571898624"/>
+        <c:axId val="555506176"/>
+        <c:axId val="567575680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="572612608"/>
+        <c:axId val="555506176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,7 +7131,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571898624"/>
+        <c:crossAx val="567575680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6983,7 +7139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571898624"/>
+        <c:axId val="567575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7026,7 +7182,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572612608"/>
+        <c:crossAx val="555506176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7107,9 +7263,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -7240,129 +7396,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -7370,10 +7538,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$G$7:$G$91</c:f>
+              <c:f>'Results 2000 - 2005'!$G$7:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>101.50130040699635</c:v>
                 </c:pt>
@@ -7504,126 +7672,138 @@
                   <c:v>119.2901881071916</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106.21012362175391</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116.3253734904924</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>571</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>99.58289094913215</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>614</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>107.08212792078309</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>606</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>105.68692104233642</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>635</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>110.74454597670565</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>646</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>112.66295543456984</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>650</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>113.36055887379318</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>679</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>118.41818380816241</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>120.51099412583245</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>611</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>106.55892534136558</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>622</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>108.47733479922978</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>615</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>107.25652878058892</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>631</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>636</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>110.91894683651149</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>111.61655027573481</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>621</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>108.30293393942394</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>628</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>109.52373995806479</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>631</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>110.04694253748231</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>643</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>112.13975285515232</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>664</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>115.80217091107488</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>659</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>114.93016661204571</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7639,11 +7819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572613632"/>
-        <c:axId val="572211776"/>
+        <c:axId val="556721664"/>
+        <c:axId val="567579136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="572613632"/>
+        <c:axId val="556721664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7653,7 +7833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572211776"/>
+        <c:crossAx val="567579136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7661,7 +7841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572211776"/>
+        <c:axId val="567579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7672,7 +7852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572613632"/>
+        <c:crossAx val="556721664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7726,9 +7906,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 2000 - 2005'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -7859,129 +8039,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -7989,10 +8181,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$H$7:$H$91</c:f>
+              <c:f>'Results 2000 - 2005'!$H$7:$H$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>51.132779015227761</c:v>
                 </c:pt>
@@ -8123,126 +8315,138 @@
                   <c:v>53.135296648334858</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.227531318069765</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.490650560964774</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>3674</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>50.392121808462115</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>3847</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>52.764968044952035</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>3679</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>50.460701179458944</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>3696</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>50.69387104084813</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>3693</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>50.652723418250034</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>3808</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>52.230048951176862</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>3847</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>52.764968044952035</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>3868</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>53.05300140313868</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>3685</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>50.542996424655122</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>3605</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>49.445726488706036</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>3535</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>48.485615294750573</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>3768</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>51.681413983202312</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>3706</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>50.83102978284176</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>3651</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>50.076656701876765</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>3538</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>48.52676291734867</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>3549</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>48.67763753354167</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>3578</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>49.075397885323213</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>3690</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>50.611575795651945</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>3758</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>51.544255241208667</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>3794</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>52.038026712385758</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8258,11 +8462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572614144"/>
-        <c:axId val="572213504"/>
+        <c:axId val="559561728"/>
+        <c:axId val="572260928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="572614144"/>
+        <c:axId val="559561728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,7 +8477,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572213504"/>
+        <c:crossAx val="572260928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8281,7 +8485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572213504"/>
+        <c:axId val="572260928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8292,7 +8496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572614144"/>
+        <c:crossAx val="559561728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8947,11 +9151,11 @@
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
-        <c:axId val="572421120"/>
-        <c:axId val="572215232"/>
+        <c:axId val="559663616"/>
+        <c:axId val="572262656"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="572421120"/>
+        <c:axId val="559663616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8960,7 +9164,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572215232"/>
+        <c:crossAx val="572262656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8968,7 +9172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572215232"/>
+        <c:axId val="572262656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9003,7 +9207,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572421120"/>
+        <c:crossAx val="559663616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9617,11 +9821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="584229888"/>
-        <c:axId val="578863104"/>
+        <c:axId val="572339712"/>
+        <c:axId val="572267840"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="584229888"/>
+        <c:axId val="572339712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9630,7 +9834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578863104"/>
+        <c:crossAx val="572267840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9638,7 +9842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="578863104"/>
+        <c:axId val="572267840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9649,7 +9853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584229888"/>
+        <c:crossAx val="572339712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9672,13 +9876,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>109903</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>490904</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>153866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9702,13 +9906,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2212731</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>153864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>465504</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>109903</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10078,6 +10282,9 @@
             <v>2087</v>
           </cell>
         </row>
+        <row r="18">
+          <cell r="I18"/>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -10381,7 +10588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -11923,10 +12130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:T91"/>
+  <dimension ref="C1:T95"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -12150,19 +12357,19 @@
         <v>3849</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" ref="J8:J71" si="0">SUM(D8:H8)</f>
+        <f t="shared" ref="J8:J75" si="0">SUM(D8:H8)</f>
         <v>5913</v>
       </c>
       <c r="K8" s="21">
-        <f t="shared" ref="K8:K71" si="1">MIN(D8:H8)</f>
+        <f t="shared" ref="K8:K75" si="1">MIN(D8:H8)</f>
         <v>28</v>
       </c>
       <c r="L8" s="21">
-        <f t="shared" ref="L8:L71" si="2">MAX(D8:H8)</f>
+        <f t="shared" ref="L8:L75" si="2">MAX(D8:H8)</f>
         <v>3849</v>
       </c>
       <c r="M8" s="21">
-        <f t="shared" ref="M8:M71" si="3">SUM(D8:H8)/5</f>
+        <f t="shared" ref="M8:M75" si="3">SUM(D8:H8)/5</f>
         <v>1182.5999999999999</v>
       </c>
       <c r="N8" s="21">
@@ -12178,15 +12385,15 @@
         <v>443</v>
       </c>
       <c r="R8" s="21">
-        <f t="shared" ref="R8:R53" si="4">MIN(K8,N8)</f>
+        <f t="shared" ref="R8:R57" si="4">MIN(K8,N8)</f>
         <v>14</v>
       </c>
       <c r="S8" s="21">
-        <f t="shared" ref="S8:S53" si="5">MAX(L8,O8)</f>
+        <f t="shared" ref="S8:S57" si="5">MAX(L8,O8)</f>
         <v>3849</v>
       </c>
       <c r="T8" s="21">
-        <f t="shared" ref="T8:T53" si="6">(Q8+J8)/10</f>
+        <f t="shared" ref="T8:T57" si="6">(Q8+J8)/10</f>
         <v>635.6</v>
       </c>
     </row>
@@ -12570,23 +12777,23 @@
         <v>39</v>
       </c>
       <c r="D15" s="33">
-        <f>((D14/ 'First Table'!I12  )*100)/'Results 1994-1999'!D5</f>
+        <f>((D14/ 'First Table'!I12  )*100)/'Results 2000 - 2005'!D5</f>
         <v>55.115674374559752</v>
       </c>
       <c r="E15" s="32">
-        <f>((E14/   'First Table'!I13   )*100)/'Results 1994-1999'!E5</f>
+        <f>((E14/   'First Table'!I13   )*100)/'Results 2000 - 2005'!E5</f>
         <v>93.051521399360809</v>
       </c>
       <c r="F15" s="33">
-        <f>((F14/   'First Table'!I14    )*100)/'Results 1994-1999'!F5</f>
+        <f>((F14/   'First Table'!I14    )*100)/'Results 2000 - 2005'!F5</f>
         <v>64.147471761641441</v>
       </c>
       <c r="G15" s="33">
-        <f>((G14/ 'First Table'!I15  )*100)/'Results 1994-1999'!G5</f>
+        <f>((G14/ 'First Table'!I15  )*100)/'Results 2000 - 2005'!G5</f>
         <v>116.84857606990991</v>
       </c>
       <c r="H15" s="33">
-        <f>((H14/   'First Table'!I16    )*100)/'Results 1994-1999'!H5</f>
+        <f>((H14/   'First Table'!I16    )*100)/'Results 2000 - 2005'!H5</f>
         <v>52.380923567369862</v>
       </c>
       <c r="J15" s="21">
@@ -14774,519 +14981,507 @@
     </row>
     <row r="50" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="33">
+        <v>30</v>
+      </c>
+      <c r="E50" s="33">
+        <v>78</v>
+      </c>
+      <c r="F50" s="33">
+        <v>1364</v>
+      </c>
+      <c r="G50" s="33">
+        <v>609</v>
+      </c>
+      <c r="H50" s="33">
+        <v>3662</v>
+      </c>
+      <c r="I50" s="19"/>
+      <c r="K50" s="21">
+        <f>SUM(D50:H50)</f>
+        <v>5743</v>
+      </c>
+      <c r="L50" s="21">
+        <f>MIN(D50:H50)</f>
+        <v>30</v>
+      </c>
+      <c r="M50" s="21">
+        <f>MAX(D50:H50)</f>
+        <v>3662</v>
+      </c>
+      <c r="N50">
+        <f>K50/5</f>
+        <v>1148.5999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="33">
+        <f>((D50/   'First Table'!I12  )*100)/D5</f>
+        <v>45.929728645466469</v>
+      </c>
+      <c r="E51" s="34">
+        <f>((E50/   'First Table'!I13   )*100)/E5</f>
+        <v>83.42550194425452</v>
+      </c>
+      <c r="F51" s="33">
+        <f>((F50/   'First Table'!I14    )*100)/F5</f>
+        <v>61.186819218796444</v>
+      </c>
+      <c r="G51" s="33">
+        <f>((G50/  'First Table'!I15  )*100)/G5</f>
+        <v>106.21012362175391</v>
+      </c>
+      <c r="H51" s="33">
+        <f>((H50/  'First Table'!I16    )*100)/H5</f>
+        <v>50.227531318069765</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="K51" s="21">
+        <f>SUM(D51:H51)</f>
+        <v>346.97970474834108</v>
+      </c>
+      <c r="L51" s="21">
+        <f>MIN(D51:H51)</f>
+        <v>45.929728645466469</v>
+      </c>
+      <c r="M51" s="21">
+        <f>MAX(D51:H51)</f>
+        <v>106.21012362175391</v>
+      </c>
+      <c r="N51" s="21">
+        <f>K51/5</f>
+        <v>69.395940949668216</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="33">
+        <v>33</v>
+      </c>
+      <c r="E52" s="33">
+        <v>78</v>
+      </c>
+      <c r="F52" s="33">
+        <v>1375</v>
+      </c>
+      <c r="G52" s="33">
+        <v>667</v>
+      </c>
+      <c r="H52" s="33">
+        <v>3827</v>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="K52" s="21">
+        <f>SUM(D52:H52)</f>
+        <v>5980</v>
+      </c>
+      <c r="L52" s="21">
+        <f>MIN(D52:H52)</f>
+        <v>33</v>
+      </c>
+      <c r="M52" s="21">
+        <f>MAX(D52:H52)</f>
+        <v>3827</v>
+      </c>
+      <c r="N52" s="21">
+        <f>K52/5</f>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C53" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="33">
+        <f>((D52/  'First Table'!I12  )*100)/D5</f>
+        <v>50.522701510013114</v>
+      </c>
+      <c r="E53" s="34">
+        <f>((E52/ 'First Table'!I13   )*100)/E5</f>
+        <v>83.42550194425452</v>
+      </c>
+      <c r="F53" s="33">
+        <f>((F52/    'First Table'!I14    )*100)/F5</f>
+        <v>61.68026130927062</v>
+      </c>
+      <c r="G53" s="33">
+        <f>((G52/  'First Table'!I15  )*100)/G5</f>
+        <v>116.3253734904924</v>
+      </c>
+      <c r="H53" s="33">
+        <f>((H52/   'First Table'!I16    )*100)/H5</f>
+        <v>52.490650560964774</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="K53" s="21">
+        <f>SUM(D53:H53)</f>
+        <v>364.4444888149954</v>
+      </c>
+      <c r="L53" s="21">
+        <f>MIN(D53:H53)</f>
+        <v>50.522701510013114</v>
+      </c>
+      <c r="M53" s="21">
+        <f>MAX(D53:H53)</f>
+        <v>116.3253734904924</v>
+      </c>
+      <c r="N53" s="21">
+        <f>K53/5</f>
+        <v>72.888897762999079</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D54" s="33">
         <v>22</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E54" s="33">
         <v>62</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F54" s="33">
         <v>1297</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G54" s="33">
         <v>571</v>
       </c>
-      <c r="H50" s="33">
+      <c r="H54" s="33">
         <v>3674</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J54" s="21">
         <f t="shared" si="0"/>
         <v>5626</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K54" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L54" s="21">
         <f t="shared" si="2"/>
         <v>3674</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M54" s="21">
         <f t="shared" si="3"/>
         <v>1125.2</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R54" s="21">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="S50" s="21">
+      <c r="S54" s="21">
         <f t="shared" si="5"/>
         <v>3674</v>
       </c>
-      <c r="T50" s="21">
+      <c r="T54" s="21">
         <f t="shared" si="6"/>
         <v>562.6</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="35" t="s">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C55" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="33">
-        <f>((D50/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D55" s="33">
+        <f>((D54/ 'First Table'!I12  )*100)/D5</f>
         <v>33.681801006675407</v>
       </c>
-      <c r="E51" s="34">
-        <f>((E50/   'First Table'!I13   )*100)/E5</f>
+      <c r="E55" s="34">
+        <f>((E54/   'First Table'!I13   )*100)/E5</f>
         <v>66.312578468509997</v>
       </c>
-      <c r="F51" s="33">
-        <f>((F50/   'First Table'!I14    )*100)/F5</f>
+      <c r="F55" s="33">
+        <f>((F54/   'First Table'!I14    )*100)/F5</f>
         <v>58.181308304090166</v>
       </c>
-      <c r="G51" s="33">
-        <f>((G50/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G55" s="33">
+        <f>((G54/ 'First Table'!I15  )*100)/G5</f>
         <v>99.58289094913215</v>
       </c>
-      <c r="H51" s="33">
-        <f>((H50/   'First Table'!I16    )*100)/H5</f>
+      <c r="H55" s="33">
+        <f>((H54/   'First Table'!I16    )*100)/H5</f>
         <v>50.392121808462115</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J55" s="21">
         <f t="shared" si="0"/>
         <v>308.15070053686981</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K55" s="21">
         <f t="shared" si="1"/>
         <v>33.681801006675407</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L55" s="21">
         <f t="shared" si="2"/>
         <v>99.58289094913215</v>
       </c>
-      <c r="M51" s="21">
+      <c r="M55" s="21">
         <f t="shared" si="3"/>
         <v>61.630140107373961</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N55" s="21">
         <v>39.763610678650707</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O55" s="21">
         <v>64.901989367339482</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P55" s="21">
         <v>50.989833761643936</v>
       </c>
-      <c r="Q51">
+      <c r="Q55">
         <v>254.94916880821967</v>
       </c>
-      <c r="R51" s="21">
+      <c r="R55" s="21">
         <f t="shared" si="4"/>
         <v>33.681801006675407</v>
       </c>
-      <c r="S51" s="21">
+      <c r="S55" s="21">
         <f t="shared" si="5"/>
         <v>99.58289094913215</v>
       </c>
-      <c r="T51" s="21">
+      <c r="T55" s="21">
         <f t="shared" si="6"/>
         <v>56.309986934508949</v>
       </c>
     </row>
-    <row r="52" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="36" t="s">
+    <row r="56" spans="3:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D56" s="33">
         <v>26</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E56" s="33">
         <v>68</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F56" s="33">
         <v>1341</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G56" s="33">
         <v>614</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H56" s="33">
         <v>3847</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J56" s="21">
         <f t="shared" si="0"/>
         <v>5896</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K56" s="21">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L56" s="21">
         <f t="shared" si="2"/>
         <v>3847</v>
       </c>
-      <c r="M52" s="21">
+      <c r="M56" s="21">
         <f t="shared" si="3"/>
         <v>1179.2</v>
       </c>
-      <c r="N52" s="21">
+      <c r="N56" s="21">
         <v>14</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O56" s="21">
         <v>178</v>
       </c>
-      <c r="P52" s="21">
+      <c r="P56" s="21">
         <v>90</v>
       </c>
-      <c r="Q52">
+      <c r="Q56">
         <v>450</v>
       </c>
-      <c r="R52" s="21">
+      <c r="R56" s="21">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="S52" s="21">
+      <c r="S56" s="21">
         <f t="shared" si="5"/>
         <v>3847</v>
       </c>
-      <c r="T52" s="21">
+      <c r="T56" s="21">
         <f t="shared" si="6"/>
         <v>634.6</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="35" t="s">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C57" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="33">
-        <f>((D52/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D57" s="33">
+        <f>((D56/ 'First Table'!I12  )*100)/D5</f>
         <v>39.805764826070934</v>
       </c>
-      <c r="E53" s="34">
-        <f>((E52/   'First Table'!I13   )*100)/E5</f>
+      <c r="E57" s="34">
+        <f>((E56/   'First Table'!I13   )*100)/E5</f>
         <v>72.729924771914199</v>
       </c>
-      <c r="F53" s="33">
-        <f>((F52/   'First Table'!I14    )*100)/F5</f>
+      <c r="F57" s="33">
+        <f>((F56/   'First Table'!I14    )*100)/F5</f>
         <v>60.155076665986833</v>
       </c>
-      <c r="G53" s="33">
-        <f>((G52/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G57" s="33">
+        <f>((G56/ 'First Table'!I15  )*100)/G5</f>
         <v>107.08212792078309</v>
       </c>
-      <c r="H53" s="33">
-        <f>((H52/   'First Table'!I16    )*100)/H5</f>
+      <c r="H57" s="33">
+        <f>((H56/   'First Table'!I16    )*100)/H5</f>
         <v>52.764968044952035</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J57" s="21">
         <f t="shared" si="0"/>
         <v>332.53786222970706</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K57" s="21">
         <f t="shared" si="1"/>
         <v>39.805764826070934</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L57" s="21">
         <f t="shared" si="2"/>
         <v>107.08212792078309</v>
       </c>
-      <c r="M53" s="21">
+      <c r="M57" s="21">
         <f t="shared" si="3"/>
         <v>66.507572445941406</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N57" s="21">
         <v>36.297039491281161</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O57" s="21">
         <v>68.646334907762906</v>
       </c>
-      <c r="P53" s="21">
+      <c r="P57" s="21">
         <v>55.745454661858368</v>
       </c>
-      <c r="Q53">
+      <c r="Q57">
         <v>278.72727330929183</v>
       </c>
-      <c r="R53" s="21">
+      <c r="R57" s="21">
         <f t="shared" si="4"/>
         <v>36.297039491281161</v>
       </c>
-      <c r="S53" s="21">
+      <c r="S57" s="21">
         <f t="shared" si="5"/>
         <v>107.08212792078309</v>
       </c>
-      <c r="T53" s="21">
+      <c r="T57" s="21">
         <f t="shared" si="6"/>
         <v>61.126513553899898</v>
       </c>
     </row>
-    <row r="54" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C54" s="36" t="s">
+    <row r="58" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C58" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D58" s="33">
         <v>31</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E58" s="33">
         <v>75</v>
       </c>
-      <c r="F54" s="33">
+      <c r="F58" s="33">
         <v>1378</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G58" s="33">
         <v>606</v>
       </c>
-      <c r="H54" s="33">
+      <c r="H58" s="33">
         <v>3679</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J58" s="21">
         <f t="shared" si="0"/>
         <v>5769</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K58" s="21">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L58" s="21">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M58" s="21">
         <f t="shared" si="3"/>
         <v>1153.8</v>
       </c>
-      <c r="N54" s="21">
-        <f>K54/5</f>
+      <c r="N58" s="21">
+        <f>K58/5</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C55" s="35" t="s">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C59" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="33">
-        <f>((D54/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D59" s="33">
+        <f>((D58/ 'First Table'!I12  )*100)/D5</f>
         <v>47.46071960031535</v>
       </c>
-      <c r="E55" s="33">
-        <f>((E54/    'First Table'!I13   )*100)/E5</f>
+      <c r="E59" s="33">
+        <f>((E58/    'First Table'!I13   )*100)/E5</f>
         <v>80.21682879255242</v>
       </c>
-      <c r="F55" s="33">
-        <f>((F54/    'First Table'!I14    )*100)/F5</f>
+      <c r="F59" s="33">
+        <f>((F58/    'First Table'!I14    )*100)/F5</f>
         <v>61.814836424854477</v>
       </c>
-      <c r="G55" s="33">
-        <f>((G54/  'First Table'!I15  )*100)/G5</f>
+      <c r="G59" s="33">
+        <f>((G58/  'First Table'!I15  )*100)/G5</f>
         <v>105.68692104233642</v>
       </c>
-      <c r="H55" s="33">
-        <f>((H54/  'First Table'!I16    )*100)/H5</f>
+      <c r="H59" s="33">
+        <f>((H58/  'First Table'!I16    )*100)/H5</f>
         <v>50.460701179458944</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J59" s="21">
         <f t="shared" si="0"/>
         <v>345.64000703951763</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K59" s="21">
         <f t="shared" si="1"/>
         <v>47.46071960031535</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L59" s="21">
         <f t="shared" si="2"/>
         <v>105.68692104233642</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M59" s="21">
         <f t="shared" si="3"/>
         <v>69.128001407903525</v>
       </c>
-      <c r="N55" s="21">
-        <f t="shared" ref="N55:N89" si="7">K55/5</f>
+      <c r="N59" s="21">
+        <f t="shared" ref="N59:N93" si="7">K59/5</f>
         <v>9.4921439200630697</v>
       </c>
     </row>
-    <row r="56" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C56" s="36" t="s">
+    <row r="60" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C60" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D60" s="33">
         <v>33</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E60" s="33">
         <v>79</v>
       </c>
-      <c r="F56" s="33">
+      <c r="F60" s="33">
         <v>1408</v>
       </c>
-      <c r="G56" s="33">
+      <c r="G60" s="33">
         <v>635</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H60" s="33">
         <v>3696</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J60" s="21">
         <f t="shared" si="0"/>
         <v>5851</v>
-      </c>
-      <c r="K56" s="21">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="L56" s="21">
-        <f t="shared" si="2"/>
-        <v>3696</v>
-      </c>
-      <c r="M56" s="21">
-        <f t="shared" si="3"/>
-        <v>1170.2</v>
-      </c>
-      <c r="N56" s="21">
-        <f t="shared" si="7"/>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="33">
-        <f>((D56/  'First Table'!I12  )*100)/D5</f>
-        <v>50.522701510013114</v>
-      </c>
-      <c r="E57" s="33">
-        <f>((E56/    'First Table'!I13   )*100)/E5</f>
-        <v>84.495059661488568</v>
-      </c>
-      <c r="F57" s="33">
-        <f>((F56/   'First Table'!I14    )*100)/F5</f>
-        <v>63.160587580693111</v>
-      </c>
-      <c r="G57" s="33">
-        <f>((G56/  'First Table'!I15  )*100)/G5</f>
-        <v>110.74454597670565</v>
-      </c>
-      <c r="H57" s="33">
-        <f>((H56/   'First Table'!I16    )*100)/H5</f>
-        <v>50.69387104084813</v>
-      </c>
-      <c r="J57" s="21">
-        <f t="shared" si="0"/>
-        <v>359.61676576974861</v>
-      </c>
-      <c r="K57" s="21">
-        <f t="shared" si="1"/>
-        <v>50.522701510013114</v>
-      </c>
-      <c r="L57" s="21">
-        <f t="shared" si="2"/>
-        <v>110.74454597670565</v>
-      </c>
-      <c r="M57" s="21">
-        <f t="shared" si="3"/>
-        <v>71.923353153949719</v>
-      </c>
-      <c r="N57" s="21">
-        <f t="shared" si="7"/>
-        <v>10.104540302002622</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C58" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="33">
-        <v>33</v>
-      </c>
-      <c r="E58" s="33">
-        <v>78</v>
-      </c>
-      <c r="F58" s="33">
-        <v>1427</v>
-      </c>
-      <c r="G58" s="33">
-        <v>646</v>
-      </c>
-      <c r="H58" s="33">
-        <v>3693</v>
-      </c>
-      <c r="J58" s="21">
-        <f t="shared" si="0"/>
-        <v>5877</v>
-      </c>
-      <c r="K58" s="21">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="L58" s="21">
-        <f t="shared" si="2"/>
-        <v>3693</v>
-      </c>
-      <c r="M58" s="21">
-        <f t="shared" si="3"/>
-        <v>1175.4000000000001</v>
-      </c>
-      <c r="N58" s="21">
-        <f t="shared" si="7"/>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="33">
-        <f>((D58/ 'First Table'!I12  )*100)/D5</f>
-        <v>50.522701510013114</v>
-      </c>
-      <c r="E59" s="33">
-        <f>((E58/   'First Table'!I13   )*100)/E5</f>
-        <v>83.42550194425452</v>
-      </c>
-      <c r="F59" s="33">
-        <f>((F58/   'First Table'!I14    )*100)/F5</f>
-        <v>64.012896646057584</v>
-      </c>
-      <c r="G59" s="33">
-        <f>((G58/  'First Table'!I15  )*100)/G5</f>
-        <v>112.66295543456984</v>
-      </c>
-      <c r="H59" s="33">
-        <f>((H58/    'First Table'!I16    )*100)/H5</f>
-        <v>50.652723418250034</v>
-      </c>
-      <c r="J59" s="21">
-        <f t="shared" si="0"/>
-        <v>361.27677895314508</v>
-      </c>
-      <c r="K59" s="21">
-        <f t="shared" si="1"/>
-        <v>50.522701510013114</v>
-      </c>
-      <c r="L59" s="21">
-        <f t="shared" si="2"/>
-        <v>112.66295543456984</v>
-      </c>
-      <c r="M59" s="21">
-        <f t="shared" si="3"/>
-        <v>72.255355790629011</v>
-      </c>
-      <c r="N59" s="21">
-        <f t="shared" si="7"/>
-        <v>10.104540302002622</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C60" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="33">
-        <v>33</v>
-      </c>
-      <c r="E60" s="33">
-        <v>83</v>
-      </c>
-      <c r="F60" s="33">
-        <v>1373</v>
-      </c>
-      <c r="G60" s="33">
-        <v>650</v>
-      </c>
-      <c r="H60" s="33">
-        <v>3808</v>
-      </c>
-      <c r="J60" s="21">
-        <f t="shared" si="0"/>
-        <v>5947</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="1"/>
@@ -15294,11 +15489,11 @@
       </c>
       <c r="L60" s="21">
         <f t="shared" si="2"/>
-        <v>3808</v>
+        <v>3696</v>
       </c>
       <c r="M60" s="21">
         <f t="shared" si="3"/>
-        <v>1189.4000000000001</v>
+        <v>1170.2</v>
       </c>
       <c r="N60" s="21">
         <f t="shared" si="7"/>
@@ -15307,7 +15502,7 @@
     </row>
     <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D61" s="33">
         <f>((D60/  'First Table'!I12  )*100)/D5</f>
@@ -15315,23 +15510,23 @@
       </c>
       <c r="E61" s="33">
         <f>((E60/    'First Table'!I13   )*100)/E5</f>
-        <v>88.773290530424688</v>
+        <v>84.495059661488568</v>
       </c>
       <c r="F61" s="33">
-        <f>((F60/    'First Table'!I14    )*100)/F5</f>
-        <v>61.590544565548043</v>
+        <f>((F60/   'First Table'!I14    )*100)/F5</f>
+        <v>63.160587580693111</v>
       </c>
       <c r="G61" s="33">
         <f>((G60/  'First Table'!I15  )*100)/G5</f>
-        <v>113.36055887379318</v>
+        <v>110.74454597670565</v>
       </c>
       <c r="H61" s="33">
-        <f>((H60/    'First Table'!I16    )*100)/H5</f>
-        <v>52.230048951176862</v>
+        <f>((H60/   'First Table'!I16    )*100)/H5</f>
+        <v>50.69387104084813</v>
       </c>
       <c r="J61" s="21">
         <f t="shared" si="0"/>
-        <v>366.47714443095589</v>
+        <v>359.61676576974861</v>
       </c>
       <c r="K61" s="21">
         <f t="shared" si="1"/>
@@ -15339,11 +15534,11 @@
       </c>
       <c r="L61" s="21">
         <f t="shared" si="2"/>
-        <v>113.36055887379318</v>
+        <v>110.74454597670565</v>
       </c>
       <c r="M61" s="21">
         <f t="shared" si="3"/>
-        <v>73.295428886191175</v>
+        <v>71.923353153949719</v>
       </c>
       <c r="N61" s="21">
         <f t="shared" si="7"/>
@@ -15352,111 +15547,111 @@
     </row>
     <row r="62" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C62" s="36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D62" s="33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" s="33">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F62" s="33">
-        <v>1388</v>
+        <v>1427</v>
       </c>
       <c r="G62" s="33">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="H62" s="33">
-        <v>3847</v>
+        <v>3693</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="0"/>
-        <v>6029</v>
+        <v>5877</v>
       </c>
       <c r="K62" s="21">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L62" s="21">
         <f t="shared" si="2"/>
-        <v>3847</v>
+        <v>3693</v>
       </c>
       <c r="M62" s="21">
         <f t="shared" si="3"/>
-        <v>1205.8</v>
+        <v>1175.4000000000001</v>
       </c>
       <c r="N62" s="21">
         <f t="shared" si="7"/>
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D63" s="33">
         <f>((D62/ 'First Table'!I12  )*100)/D5</f>
-        <v>52.053692464861996</v>
+        <v>50.522701510013114</v>
       </c>
       <c r="E63" s="33">
-        <f>((E62/    'First Table'!I13   )*100)/E5</f>
-        <v>86.634175095956621</v>
+        <f>((E62/   'First Table'!I13   )*100)/E5</f>
+        <v>83.42550194425452</v>
       </c>
       <c r="F63" s="33">
-        <f>((F62/    'First Table'!I14    )*100)/F5</f>
-        <v>62.263420143467364</v>
+        <f>((F62/   'First Table'!I14    )*100)/F5</f>
+        <v>64.012896646057584</v>
       </c>
       <c r="G63" s="33">
-        <f>((G62/ 'First Table'!I15  )*100)/G5</f>
-        <v>118.41818380816241</v>
+        <f>((G62/  'First Table'!I15  )*100)/G5</f>
+        <v>112.66295543456984</v>
       </c>
       <c r="H63" s="33">
-        <f>((H62/   'First Table'!I16    )*100)/H5</f>
-        <v>52.764968044952035</v>
+        <f>((H62/    'First Table'!I16    )*100)/H5</f>
+        <v>50.652723418250034</v>
       </c>
       <c r="J63" s="21">
         <f t="shared" si="0"/>
-        <v>372.13443955740041</v>
+        <v>361.27677895314508</v>
       </c>
       <c r="K63" s="21">
         <f t="shared" si="1"/>
-        <v>52.053692464861996</v>
+        <v>50.522701510013114</v>
       </c>
       <c r="L63" s="21">
         <f t="shared" si="2"/>
-        <v>118.41818380816241</v>
+        <v>112.66295543456984</v>
       </c>
       <c r="M63" s="21">
         <f t="shared" si="3"/>
-        <v>74.42688791148008</v>
+        <v>72.255355790629011</v>
       </c>
       <c r="N63" s="21">
         <f t="shared" si="7"/>
-        <v>10.410738492972399</v>
+        <v>10.104540302002622</v>
       </c>
     </row>
     <row r="64" spans="3:20" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C64" s="36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D64" s="33">
         <v>33</v>
       </c>
       <c r="E64" s="33">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F64" s="33">
-        <v>1411</v>
+        <v>1373</v>
       </c>
       <c r="G64" s="33">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="H64" s="33">
-        <v>3868</v>
+        <v>3808</v>
       </c>
       <c r="J64" s="21">
         <f t="shared" si="0"/>
-        <v>6082</v>
+        <v>5947</v>
       </c>
       <c r="K64" s="21">
         <f t="shared" si="1"/>
@@ -15464,11 +15659,11 @@
       </c>
       <c r="L64" s="21">
         <f t="shared" si="2"/>
-        <v>3868</v>
+        <v>3808</v>
       </c>
       <c r="M64" s="21">
         <f t="shared" si="3"/>
-        <v>1216.4000000000001</v>
+        <v>1189.4000000000001</v>
       </c>
       <c r="N64" s="21">
         <f t="shared" si="7"/>
@@ -15476,32 +15671,32 @@
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C65" s="31" t="s">
-        <v>117</v>
+      <c r="C65" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="D65" s="33">
         <f>((D64/  'First Table'!I12  )*100)/D5</f>
         <v>50.522701510013114</v>
       </c>
       <c r="E65" s="33">
-        <f>((E64/   'First Table'!I13   )*100)/E5</f>
-        <v>84.495059661488568</v>
+        <f>((E64/    'First Table'!I13   )*100)/E5</f>
+        <v>88.773290530424688</v>
       </c>
       <c r="F65" s="33">
-        <f>((F64/   'First Table'!I14    )*100)/F5</f>
-        <v>63.295162696276982</v>
-      </c>
-      <c r="G65" s="32">
-        <f>((G64/ 'First Table'!I15  )*100)/G5</f>
-        <v>120.51099412583245</v>
-      </c>
-      <c r="H65" s="32">
+        <f>((F64/    'First Table'!I14    )*100)/F5</f>
+        <v>61.590544565548043</v>
+      </c>
+      <c r="G65" s="33">
+        <f>((G64/  'First Table'!I15  )*100)/G5</f>
+        <v>113.36055887379318</v>
+      </c>
+      <c r="H65" s="33">
         <f>((H64/    'First Table'!I16    )*100)/H5</f>
-        <v>53.05300140313868</v>
+        <v>52.230048951176862</v>
       </c>
       <c r="J65" s="21">
         <f t="shared" si="0"/>
-        <v>371.87691939674983</v>
+        <v>366.47714443095589</v>
       </c>
       <c r="K65" s="21">
         <f t="shared" si="1"/>
@@ -15509,11 +15704,11 @@
       </c>
       <c r="L65" s="21">
         <f t="shared" si="2"/>
-        <v>120.51099412583245</v>
+        <v>113.36055887379318</v>
       </c>
       <c r="M65" s="21">
         <f t="shared" si="3"/>
-        <v>74.375383879349968</v>
+        <v>73.295428886191175</v>
       </c>
       <c r="N65" s="21">
         <f t="shared" si="7"/>
@@ -15521,1064 +15716,1234 @@
       </c>
     </row>
     <row r="66" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C66" s="35" t="s">
-        <v>106</v>
+      <c r="C66" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="D66" s="33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E66" s="33">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F66" s="33">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="G66" s="33">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="H66" s="33">
-        <v>3685</v>
+        <v>3847</v>
       </c>
       <c r="J66" s="21">
         <f t="shared" si="0"/>
-        <v>5796</v>
+        <v>6029</v>
       </c>
       <c r="K66" s="21">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L66" s="21">
         <f t="shared" si="2"/>
-        <v>3685</v>
+        <v>3847</v>
       </c>
       <c r="M66" s="21">
         <f t="shared" si="3"/>
-        <v>1159.2</v>
+        <v>1205.8</v>
       </c>
       <c r="N66" s="21">
         <f t="shared" si="7"/>
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D67" s="33">
         <f>((D66/ 'First Table'!I12  )*100)/D5</f>
-        <v>47.46071960031535</v>
+        <v>52.053692464861996</v>
       </c>
       <c r="E67" s="33">
         <f>((E66/    'First Table'!I13   )*100)/E5</f>
-        <v>82.355944227020487</v>
+        <v>86.634175095956621</v>
       </c>
       <c r="F67" s="33">
-        <f>((F66/   'First Table'!I14    )*100)/F5</f>
-        <v>62.442853630912509</v>
+        <f>((F66/    'First Table'!I14    )*100)/F5</f>
+        <v>62.263420143467364</v>
       </c>
       <c r="G67" s="33">
-        <f>((G66/  'First Table'!I15  )*100)/G5</f>
-        <v>106.55892534136558</v>
+        <f>((G66/ 'First Table'!I15  )*100)/G5</f>
+        <v>118.41818380816241</v>
       </c>
       <c r="H67" s="33">
         <f>((H66/   'First Table'!I16    )*100)/H5</f>
-        <v>50.542996424655122</v>
+        <v>52.764968044952035</v>
       </c>
       <c r="J67" s="21">
         <f t="shared" si="0"/>
-        <v>349.36143922426908</v>
+        <v>372.13443955740041</v>
       </c>
       <c r="K67" s="21">
         <f t="shared" si="1"/>
-        <v>47.46071960031535</v>
+        <v>52.053692464861996</v>
       </c>
       <c r="L67" s="21">
         <f t="shared" si="2"/>
-        <v>106.55892534136558</v>
+        <v>118.41818380816241</v>
       </c>
       <c r="M67" s="21">
         <f t="shared" si="3"/>
-        <v>69.872287844853815</v>
+        <v>74.42688791148008</v>
       </c>
       <c r="N67" s="21">
         <f t="shared" si="7"/>
-        <v>9.4921439200630697</v>
+        <v>10.410738492972399</v>
       </c>
     </row>
     <row r="68" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C68" s="36" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D68" s="33">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E68" s="33">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" s="33">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="G68" s="33">
-        <v>622</v>
+        <v>691</v>
       </c>
       <c r="H68" s="33">
-        <v>3605</v>
+        <v>3868</v>
       </c>
       <c r="J68" s="21">
         <f t="shared" si="0"/>
-        <v>5761</v>
+        <v>6082</v>
       </c>
       <c r="K68" s="21">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L68" s="21">
         <f t="shared" si="2"/>
-        <v>3605</v>
+        <v>3868</v>
       </c>
       <c r="M68" s="21">
         <f t="shared" si="3"/>
-        <v>1152.2</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="N68" s="21">
         <f t="shared" si="7"/>
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="35" t="s">
-        <v>119</v>
+      <c r="C69" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="D69" s="33">
-        <f>((D68/'First Table'!I12  )*100)/D5</f>
-        <v>42.867746735768698</v>
+        <f>((D68/  'First Table'!I12  )*100)/D5</f>
+        <v>50.522701510013114</v>
       </c>
       <c r="E69" s="33">
         <f>((E68/   'First Table'!I13   )*100)/E5</f>
-        <v>85.564617378722588</v>
+        <v>84.495059661488568</v>
       </c>
       <c r="F69" s="33">
-        <f>((F68/    'First Table'!I14    )*100)/F5</f>
-        <v>63.968038274196289</v>
-      </c>
-      <c r="G69" s="33">
-        <f>((G68/  'First Table'!I15  )*100)/G5</f>
-        <v>108.47733479922978</v>
-      </c>
-      <c r="H69" s="33">
-        <f>((H68/   'First Table'!I16    )*100)/H5</f>
-        <v>49.445726488706036</v>
+        <f>((F68/   'First Table'!I14    )*100)/F5</f>
+        <v>63.295162696276982</v>
+      </c>
+      <c r="G69" s="32">
+        <f>((G68/ 'First Table'!I15  )*100)/G5</f>
+        <v>120.51099412583245</v>
+      </c>
+      <c r="H69" s="32">
+        <f>((H68/    'First Table'!I16    )*100)/H5</f>
+        <v>53.05300140313868</v>
       </c>
       <c r="J69" s="21">
         <f t="shared" si="0"/>
-        <v>350.32346367662342</v>
+        <v>371.87691939674983</v>
       </c>
       <c r="K69" s="21">
         <f t="shared" si="1"/>
-        <v>42.867746735768698</v>
+        <v>50.522701510013114</v>
       </c>
       <c r="L69" s="21">
         <f t="shared" si="2"/>
-        <v>108.47733479922978</v>
+        <v>120.51099412583245</v>
       </c>
       <c r="M69" s="21">
         <f t="shared" si="3"/>
-        <v>70.064692735324684</v>
+        <v>74.375383879349968</v>
       </c>
       <c r="N69" s="21">
         <f t="shared" si="7"/>
-        <v>8.5735493471537403</v>
+        <v>10.104540302002622</v>
       </c>
     </row>
     <row r="70" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C70" s="36" t="s">
-        <v>110</v>
+      <c r="C70" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="D70" s="33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E70" s="33">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F70" s="33">
-        <v>1456</v>
+        <v>1392</v>
       </c>
       <c r="G70" s="33">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H70" s="33">
-        <v>3535</v>
+        <v>3685</v>
       </c>
       <c r="J70" s="21">
         <f t="shared" si="0"/>
-        <v>5713</v>
+        <v>5796</v>
       </c>
       <c r="K70" s="21">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L70" s="21">
         <f t="shared" si="2"/>
-        <v>3535</v>
+        <v>3685</v>
       </c>
       <c r="M70" s="21">
         <f t="shared" si="3"/>
-        <v>1142.5999999999999</v>
+        <v>1159.2</v>
       </c>
       <c r="N70" s="21">
         <f t="shared" si="7"/>
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D71" s="33">
         <f>((D70/ 'First Table'!I12  )*100)/D5</f>
-        <v>44.398737690617573</v>
+        <v>47.46071960031535</v>
       </c>
       <c r="E71" s="33">
-        <f>((E70/  'First Table'!I13   )*100)/E5</f>
-        <v>83.42550194425452</v>
+        <f>((E70/    'First Table'!I13   )*100)/E5</f>
+        <v>82.355944227020487</v>
       </c>
       <c r="F71" s="33">
-        <f>((F70/    'First Table'!I14    )*100)/F5</f>
-        <v>65.313789430034916</v>
+        <f>((F70/   'First Table'!I14    )*100)/F5</f>
+        <v>62.442853630912509</v>
       </c>
       <c r="G71" s="33">
-        <f>((G70/ 'First Table'!I15  )*100)/G5</f>
-        <v>107.25652878058892</v>
+        <f>((G70/  'First Table'!I15  )*100)/G5</f>
+        <v>106.55892534136558</v>
       </c>
       <c r="H71" s="33">
         <f>((H70/   'First Table'!I16    )*100)/H5</f>
-        <v>48.485615294750573</v>
+        <v>50.542996424655122</v>
       </c>
       <c r="J71" s="21">
         <f t="shared" si="0"/>
-        <v>348.88017314024648</v>
+        <v>349.36143922426908</v>
       </c>
       <c r="K71" s="21">
         <f t="shared" si="1"/>
-        <v>44.398737690617573</v>
+        <v>47.46071960031535</v>
       </c>
       <c r="L71" s="21">
         <f t="shared" si="2"/>
-        <v>107.25652878058892</v>
+        <v>106.55892534136558</v>
       </c>
       <c r="M71" s="21">
         <f t="shared" si="3"/>
-        <v>69.776034628049302</v>
+        <v>69.872287844853815</v>
       </c>
       <c r="N71" s="21">
         <f t="shared" si="7"/>
-        <v>8.8797475381235138</v>
+        <v>9.4921439200630697</v>
       </c>
     </row>
     <row r="72" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C72" s="36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D72" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E72" s="33">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" s="33">
-        <v>1394</v>
+        <v>1426</v>
       </c>
       <c r="G72" s="33">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H72" s="33">
-        <v>3768</v>
+        <v>3605</v>
       </c>
       <c r="J72" s="21">
-        <f t="shared" ref="J72:J89" si="8">SUM(D72:H72)</f>
-        <v>5904</v>
+        <f t="shared" si="0"/>
+        <v>5761</v>
       </c>
       <c r="K72" s="21">
-        <f t="shared" ref="K72:K89" si="9">MIN(D72:H72)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="L72" s="21">
-        <f t="shared" ref="L72:L91" si="10">MAX(D72:H72)</f>
-        <v>3768</v>
+        <f t="shared" si="2"/>
+        <v>3605</v>
       </c>
       <c r="M72" s="21">
-        <f t="shared" ref="M72:M89" si="11">SUM(D72:H72)/5</f>
-        <v>1180.8</v>
+        <f t="shared" si="3"/>
+        <v>1152.2</v>
       </c>
       <c r="N72" s="21">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D73" s="33">
-        <f>((D72/ 'First Table'!I12  )*100)/D5</f>
-        <v>45.929728645466469</v>
+        <f>((D72/'First Table'!I12  )*100)/D5</f>
+        <v>42.867746735768698</v>
       </c>
       <c r="E73" s="33">
-        <f>((E72/  'First Table'!I13   )*100)/E5</f>
-        <v>86.634175095956621</v>
+        <f>((E72/   'First Table'!I13   )*100)/E5</f>
+        <v>85.564617378722588</v>
       </c>
       <c r="F73" s="33">
-        <f>((F72/   'First Table'!I14    )*100)/F5</f>
-        <v>62.532570374635078</v>
+        <f>((F72/    'First Table'!I14    )*100)/F5</f>
+        <v>63.968038274196289</v>
       </c>
       <c r="G73" s="33">
         <f>((G72/  'First Table'!I15  )*100)/G5</f>
-        <v>110.04694253748231</v>
+        <v>108.47733479922978</v>
       </c>
       <c r="H73" s="33">
         <f>((H72/   'First Table'!I16    )*100)/H5</f>
+        <v>49.445726488706036</v>
+      </c>
+      <c r="J73" s="21">
+        <f t="shared" si="0"/>
+        <v>350.32346367662342</v>
+      </c>
+      <c r="K73" s="21">
+        <f t="shared" si="1"/>
+        <v>42.867746735768698</v>
+      </c>
+      <c r="L73" s="21">
+        <f t="shared" si="2"/>
+        <v>108.47733479922978</v>
+      </c>
+      <c r="M73" s="21">
+        <f t="shared" si="3"/>
+        <v>70.064692735324684</v>
+      </c>
+      <c r="N73" s="21">
+        <f t="shared" si="7"/>
+        <v>8.5735493471537403</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C74" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="33">
+        <v>29</v>
+      </c>
+      <c r="E74" s="33">
+        <v>78</v>
+      </c>
+      <c r="F74" s="33">
+        <v>1456</v>
+      </c>
+      <c r="G74" s="33">
+        <v>615</v>
+      </c>
+      <c r="H74" s="33">
+        <v>3535</v>
+      </c>
+      <c r="J74" s="21">
+        <f t="shared" si="0"/>
+        <v>5713</v>
+      </c>
+      <c r="K74" s="21">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="L74" s="21">
+        <f t="shared" si="2"/>
+        <v>3535</v>
+      </c>
+      <c r="M74" s="21">
+        <f t="shared" si="3"/>
+        <v>1142.5999999999999</v>
+      </c>
+      <c r="N74" s="21">
+        <f t="shared" si="7"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="33">
+        <f>((D74/ 'First Table'!I12  )*100)/D5</f>
+        <v>44.398737690617573</v>
+      </c>
+      <c r="E75" s="33">
+        <f>((E74/  'First Table'!I13   )*100)/E5</f>
+        <v>83.42550194425452</v>
+      </c>
+      <c r="F75" s="33">
+        <f>((F74/    'First Table'!I14    )*100)/F5</f>
+        <v>65.313789430034916</v>
+      </c>
+      <c r="G75" s="33">
+        <f>((G74/ 'First Table'!I15  )*100)/G5</f>
+        <v>107.25652878058892</v>
+      </c>
+      <c r="H75" s="33">
+        <f>((H74/   'First Table'!I16    )*100)/H5</f>
+        <v>48.485615294750573</v>
+      </c>
+      <c r="J75" s="21">
+        <f t="shared" si="0"/>
+        <v>348.88017314024648</v>
+      </c>
+      <c r="K75" s="21">
+        <f t="shared" si="1"/>
+        <v>44.398737690617573</v>
+      </c>
+      <c r="L75" s="21">
+        <f t="shared" si="2"/>
+        <v>107.25652878058892</v>
+      </c>
+      <c r="M75" s="21">
+        <f t="shared" si="3"/>
+        <v>69.776034628049302</v>
+      </c>
+      <c r="N75" s="21">
+        <f t="shared" si="7"/>
+        <v>8.8797475381235138</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="33">
+        <v>30</v>
+      </c>
+      <c r="E76" s="33">
+        <v>81</v>
+      </c>
+      <c r="F76" s="33">
+        <v>1394</v>
+      </c>
+      <c r="G76" s="33">
+        <v>631</v>
+      </c>
+      <c r="H76" s="33">
+        <v>3768</v>
+      </c>
+      <c r="J76" s="21">
+        <f t="shared" ref="J76:J93" si="8">SUM(D76:H76)</f>
+        <v>5904</v>
+      </c>
+      <c r="K76" s="21">
+        <f t="shared" ref="K76:K93" si="9">MIN(D76:H76)</f>
+        <v>30</v>
+      </c>
+      <c r="L76" s="21">
+        <f t="shared" ref="L76:L95" si="10">MAX(D76:H76)</f>
+        <v>3768</v>
+      </c>
+      <c r="M76" s="21">
+        <f t="shared" ref="M76:M93" si="11">SUM(D76:H76)/5</f>
+        <v>1180.8</v>
+      </c>
+      <c r="N76" s="21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="33">
+        <f>((D76/ 'First Table'!I12  )*100)/D5</f>
+        <v>45.929728645466469</v>
+      </c>
+      <c r="E77" s="33">
+        <f>((E76/  'First Table'!I13   )*100)/E5</f>
+        <v>86.634175095956621</v>
+      </c>
+      <c r="F77" s="33">
+        <f>((F76/   'First Table'!I14    )*100)/F5</f>
+        <v>62.532570374635078</v>
+      </c>
+      <c r="G77" s="33">
+        <f>((G76/  'First Table'!I15  )*100)/G5</f>
+        <v>110.04694253748231</v>
+      </c>
+      <c r="H77" s="33">
+        <f>((H76/   'First Table'!I16    )*100)/H5</f>
         <v>51.681413983202312</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J77" s="21">
         <f t="shared" si="8"/>
         <v>356.82483063674277</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K77" s="21">
         <f t="shared" si="9"/>
         <v>45.929728645466469</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L77" s="21">
         <f t="shared" si="10"/>
         <v>110.04694253748231</v>
       </c>
-      <c r="M73" s="21">
+      <c r="M77" s="21">
         <f t="shared" si="11"/>
         <v>71.364966127348552</v>
       </c>
-      <c r="N73" s="21">
+      <c r="N77" s="21">
         <f t="shared" si="7"/>
         <v>9.1859457290932944</v>
       </c>
     </row>
-    <row r="74" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="78" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C78" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D78" s="33">
         <v>31</v>
       </c>
-      <c r="E74" s="33">
+      <c r="E78" s="33">
         <v>83</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F78" s="33">
         <v>1417</v>
       </c>
-      <c r="G74" s="33">
+      <c r="G78" s="33">
         <v>636</v>
       </c>
-      <c r="H74" s="33">
+      <c r="H78" s="33">
         <v>3706</v>
       </c>
-      <c r="J74" s="21">
+      <c r="J78" s="21">
         <f t="shared" si="8"/>
         <v>5873</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K78" s="21">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="L74" s="21">
+      <c r="L78" s="21">
         <f t="shared" si="10"/>
         <v>3706</v>
       </c>
-      <c r="M74" s="21">
+      <c r="M78" s="21">
         <f t="shared" si="11"/>
         <v>1174.5999999999999</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N78" s="21">
         <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C75" s="35" t="s">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="33">
-        <f>((D74/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D79" s="33">
+        <f>((D78/ 'First Table'!I12  )*100)/D5</f>
         <v>47.46071960031535</v>
       </c>
-      <c r="E75" s="33">
-        <f>((E74/  'First Table'!I13   )*100)/E5</f>
+      <c r="E79" s="33">
+        <f>((E78/  'First Table'!I13   )*100)/E5</f>
         <v>88.773290530424688</v>
       </c>
-      <c r="F75" s="33">
-        <f>((F74/    'First Table'!I14    )*100)/F5</f>
+      <c r="F79" s="33">
+        <f>((F78/    'First Table'!I14    )*100)/F5</f>
         <v>63.564312927444703</v>
       </c>
-      <c r="G75" s="33">
-        <f>((G74/  'First Table'!I15  )*100)/G5</f>
+      <c r="G79" s="33">
+        <f>((G78/  'First Table'!I15  )*100)/G5</f>
         <v>110.91894683651149</v>
       </c>
-      <c r="H75" s="33">
-        <f>((H74/    'First Table'!I16    )*100)/H5</f>
+      <c r="H79" s="33">
+        <f>((H78/    'First Table'!I16    )*100)/H5</f>
         <v>50.83102978284176</v>
       </c>
-      <c r="J75" s="21">
+      <c r="J79" s="21">
         <f t="shared" si="8"/>
         <v>361.54829967753801</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K79" s="21">
         <f t="shared" si="9"/>
         <v>47.46071960031535</v>
       </c>
-      <c r="L75" s="21">
+      <c r="L79" s="21">
         <f t="shared" si="10"/>
         <v>110.91894683651149</v>
       </c>
-      <c r="M75" s="21">
+      <c r="M79" s="21">
         <f t="shared" si="11"/>
         <v>72.309659935507597</v>
       </c>
-      <c r="N75" s="21">
+      <c r="N79" s="21">
         <f t="shared" si="7"/>
         <v>9.4921439200630697</v>
       </c>
     </row>
-    <row r="76" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+    <row r="80" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C80" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="33">
+      <c r="D80" s="33">
         <v>33</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E80" s="33">
         <v>81</v>
       </c>
-      <c r="F76" s="33">
+      <c r="F80" s="33">
         <v>1431</v>
       </c>
-      <c r="G76" s="33">
+      <c r="G80" s="33">
         <v>640</v>
       </c>
-      <c r="H76" s="33">
+      <c r="H80" s="33">
         <v>3651</v>
       </c>
-      <c r="J76" s="21">
+      <c r="J80" s="21">
         <f t="shared" si="8"/>
         <v>5836</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K80" s="21">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="L76" s="21">
+      <c r="L80" s="21">
         <f t="shared" si="10"/>
         <v>3651</v>
       </c>
-      <c r="M76" s="21">
+      <c r="M80" s="21">
         <f t="shared" si="11"/>
         <v>1167.2</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N80" s="21">
         <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C77" s="35" t="s">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C81" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="33">
-        <f>((D76/'First Table'!I12  )*100)/D5</f>
+      <c r="D81" s="33">
+        <f>((D80/'First Table'!I12  )*100)/D5</f>
         <v>50.522701510013114</v>
       </c>
-      <c r="E77" s="33">
-        <f>((E76/   'First Table'!I13   )*100)/E5</f>
+      <c r="E81" s="33">
+        <f>((E80/   'First Table'!I13   )*100)/E5</f>
         <v>86.634175095956621</v>
       </c>
-      <c r="F77" s="33">
-        <f>((F76/    'First Table'!I14    )*100)/F5</f>
+      <c r="F81" s="33">
+        <f>((F80/    'First Table'!I14    )*100)/F5</f>
         <v>64.192330133502722</v>
       </c>
-      <c r="G77" s="33">
-        <f>((G76/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G81" s="33">
+        <f>((G80/ 'First Table'!I15  )*100)/G5</f>
         <v>111.61655027573481</v>
       </c>
-      <c r="H77" s="33">
-        <f>((H76/    'First Table'!I16    )*100)/H5</f>
+      <c r="H81" s="33">
+        <f>((H80/    'First Table'!I16    )*100)/H5</f>
         <v>50.076656701876765</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J81" s="21">
         <f t="shared" si="8"/>
         <v>363.042413717084</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K81" s="21">
         <f t="shared" si="9"/>
         <v>50.076656701876765</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L81" s="21">
         <f t="shared" si="10"/>
         <v>111.61655027573481</v>
       </c>
-      <c r="M77" s="21">
+      <c r="M81" s="21">
         <f t="shared" si="11"/>
         <v>72.608482743416801</v>
       </c>
-      <c r="N77" s="21">
+      <c r="N81" s="21">
         <f t="shared" si="7"/>
         <v>10.015331340375353</v>
       </c>
     </row>
-    <row r="78" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C78" s="35" t="s">
+    <row r="82" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C82" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D82" s="33">
         <v>30</v>
       </c>
-      <c r="E78" s="33">
+      <c r="E82" s="33">
         <v>78</v>
       </c>
-      <c r="F78" s="33">
+      <c r="F82" s="33">
         <v>1441</v>
       </c>
-      <c r="G78" s="33">
+      <c r="G82" s="33">
         <v>621</v>
       </c>
-      <c r="H78" s="33">
+      <c r="H82" s="33">
         <v>3538</v>
       </c>
-      <c r="J78" s="21">
+      <c r="J82" s="21">
         <f t="shared" si="8"/>
         <v>5708</v>
       </c>
-      <c r="K78" s="21">
+      <c r="K82" s="21">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="L78" s="21">
+      <c r="L82" s="21">
         <f t="shared" si="10"/>
         <v>3538</v>
       </c>
-      <c r="M78" s="21">
+      <c r="M82" s="21">
         <f t="shared" si="11"/>
         <v>1141.5999999999999</v>
       </c>
-      <c r="N78" s="21">
+      <c r="N82" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C79" s="35" t="s">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D79" s="33">
-        <f>((D78/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D83" s="33">
+        <f>((D82/ 'First Table'!I12  )*100)/D5</f>
         <v>45.929728645466469</v>
       </c>
-      <c r="E79" s="33">
-        <f>((E78/   'First Table'!I13   )*100)/E5</f>
+      <c r="E83" s="33">
+        <f>((E82/   'First Table'!I13   )*100)/E5</f>
         <v>83.42550194425452</v>
       </c>
-      <c r="F79" s="33">
-        <f>((F78/   'First Table'!I14    )*100)/F5</f>
+      <c r="F83" s="33">
+        <f>((F82/   'First Table'!I14    )*100)/F5</f>
         <v>64.640913852115602</v>
       </c>
-      <c r="G79" s="33">
-        <f>((G78/  'First Table'!I15  )*100)/G5</f>
+      <c r="G83" s="33">
+        <f>((G82/  'First Table'!I15  )*100)/G5</f>
         <v>108.30293393942394</v>
       </c>
-      <c r="H79" s="33">
-        <f>((H78/  'First Table'!I16    )*100)/H5</f>
+      <c r="H83" s="33">
+        <f>((H82/  'First Table'!I16    )*100)/H5</f>
         <v>48.52676291734867</v>
       </c>
-      <c r="J79" s="21">
+      <c r="J83" s="21">
         <f t="shared" si="8"/>
         <v>350.82584129860919</v>
       </c>
-      <c r="K79" s="21">
+      <c r="K83" s="21">
         <f t="shared" si="9"/>
         <v>45.929728645466469</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L83" s="21">
         <f t="shared" si="10"/>
         <v>108.30293393942394</v>
       </c>
-      <c r="M79" s="21">
+      <c r="M83" s="21">
         <f t="shared" si="11"/>
         <v>70.165168259721838</v>
       </c>
-      <c r="N79" s="21">
+      <c r="N83" s="21">
         <f t="shared" si="7"/>
         <v>9.1859457290932944</v>
       </c>
     </row>
-    <row r="80" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C80" s="36" t="s">
+    <row r="84" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="33">
+      <c r="D84" s="33">
         <v>32</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E84" s="33">
         <v>74</v>
       </c>
-      <c r="F80" s="33">
+      <c r="F84" s="33">
         <v>1442</v>
       </c>
-      <c r="G80" s="33">
+      <c r="G84" s="33">
         <v>628</v>
       </c>
-      <c r="H80" s="33">
+      <c r="H84" s="33">
         <v>3549</v>
       </c>
-      <c r="J80" s="21">
+      <c r="J84" s="21">
         <f t="shared" si="8"/>
         <v>5725</v>
       </c>
-      <c r="K80" s="21">
+      <c r="K84" s="21">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="L80" s="21">
+      <c r="L84" s="21">
         <f t="shared" si="10"/>
         <v>3549</v>
       </c>
-      <c r="M80" s="21">
+      <c r="M84" s="21">
         <f t="shared" si="11"/>
         <v>1145</v>
       </c>
-      <c r="N80" s="21">
+      <c r="N84" s="21">
         <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="35" t="s">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D81" s="33">
-        <f>((D80/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D85" s="33">
+        <f>((D84/ 'First Table'!I12  )*100)/D5</f>
         <v>48.991710555164232</v>
       </c>
-      <c r="E81" s="33">
-        <f>((E80/   'First Table'!I13   )*100)/E5</f>
+      <c r="E85" s="33">
+        <f>((E84/   'First Table'!I13   )*100)/E5</f>
         <v>79.147271075318386</v>
       </c>
-      <c r="F81" s="33">
-        <f>((F80/   'First Table'!I14    )*100)/F5</f>
+      <c r="F85" s="33">
+        <f>((F84/   'First Table'!I14    )*100)/F5</f>
         <v>64.685772223976898</v>
       </c>
-      <c r="G81" s="33">
-        <f>((G80/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G85" s="33">
+        <f>((G84/ 'First Table'!I15  )*100)/G5</f>
         <v>109.52373995806479</v>
       </c>
-      <c r="H81" s="33">
-        <f>((H80/   'First Table'!I16    )*100)/H5</f>
+      <c r="H85" s="33">
+        <f>((H84/   'First Table'!I16    )*100)/H5</f>
         <v>48.67763753354167</v>
       </c>
-      <c r="J81" s="21">
+      <c r="J85" s="21">
         <f t="shared" si="8"/>
         <v>351.02613134606599</v>
       </c>
-      <c r="K81" s="21">
+      <c r="K85" s="21">
         <f t="shared" si="9"/>
         <v>48.67763753354167</v>
       </c>
-      <c r="L81" s="21">
+      <c r="L85" s="21">
         <f t="shared" si="10"/>
         <v>109.52373995806479</v>
       </c>
-      <c r="M81" s="21">
+      <c r="M85" s="21">
         <f t="shared" si="11"/>
         <v>70.205226269213199</v>
       </c>
-      <c r="N81" s="21">
+      <c r="N85" s="21">
         <f t="shared" si="7"/>
         <v>9.7355275067083333</v>
       </c>
     </row>
-    <row r="82" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C82" s="36" t="s">
+    <row r="86" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C86" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D86" s="33">
         <v>32</v>
       </c>
-      <c r="E82" s="33">
+      <c r="E86" s="33">
         <v>79</v>
       </c>
-      <c r="F82" s="33">
+      <c r="F86" s="33">
         <v>1452</v>
       </c>
-      <c r="G82" s="33">
+      <c r="G86" s="33">
         <v>631</v>
       </c>
-      <c r="H82" s="33">
+      <c r="H86" s="33">
         <v>3578</v>
       </c>
-      <c r="J82" s="21">
+      <c r="J86" s="21">
         <f t="shared" si="8"/>
         <v>5772</v>
       </c>
-      <c r="K82" s="21">
+      <c r="K86" s="21">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="L82" s="21">
+      <c r="L86" s="21">
         <f t="shared" si="10"/>
         <v>3578</v>
       </c>
-      <c r="M82" s="21">
+      <c r="M86" s="21">
         <f t="shared" si="11"/>
         <v>1154.4000000000001</v>
       </c>
-      <c r="N82" s="21">
+      <c r="N86" s="21">
         <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C83" s="31" t="s">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="33">
-        <f>((D82/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D87" s="33">
+        <f>((D86/ 'First Table'!I12  )*100)/D5</f>
         <v>48.991710555164232</v>
       </c>
-      <c r="E83" s="33">
-        <f>((E82/   'First Table'!I13   )*100)/E5</f>
+      <c r="E87" s="33">
+        <f>((E86/   'First Table'!I13   )*100)/E5</f>
         <v>84.495059661488568</v>
       </c>
-      <c r="F83" s="32">
-        <f>((F82/   'First Table'!I14    )*100)/F5</f>
+      <c r="F87" s="32">
+        <f>((F86/   'First Table'!I14    )*100)/F5</f>
         <v>65.134355942589764</v>
       </c>
-      <c r="G83" s="33">
-        <f>((G82/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G87" s="33">
+        <f>((G86/ 'First Table'!I15  )*100)/G5</f>
         <v>110.04694253748231</v>
       </c>
-      <c r="H83" s="33">
-        <f>((H82/   'First Table'!I16    )*100)/H5</f>
+      <c r="H87" s="33">
+        <f>((H86/   'First Table'!I16    )*100)/H5</f>
         <v>49.075397885323213</v>
       </c>
-      <c r="J83" s="21">
+      <c r="J87" s="21">
         <f t="shared" si="8"/>
         <v>357.74346658204809</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K87" s="21">
         <f t="shared" si="9"/>
         <v>48.991710555164232</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L87" s="21">
         <f t="shared" si="10"/>
         <v>110.04694253748231</v>
       </c>
-      <c r="M83" s="21">
+      <c r="M87" s="21">
         <f t="shared" si="11"/>
         <v>71.548693316409611</v>
       </c>
-      <c r="N83" s="21">
+      <c r="N87" s="21">
         <f t="shared" si="7"/>
         <v>9.7983421110328468</v>
       </c>
     </row>
-    <row r="84" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+    <row r="88" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C88" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="33">
+      <c r="D88" s="33">
         <v>38</v>
       </c>
-      <c r="E84" s="33">
+      <c r="E88" s="33">
         <v>77</v>
       </c>
-      <c r="F84" s="33">
+      <c r="F88" s="33">
         <v>1406</v>
       </c>
-      <c r="G84" s="33">
+      <c r="G88" s="33">
         <v>643</v>
       </c>
-      <c r="H84" s="33">
+      <c r="H88" s="33">
         <v>3690</v>
       </c>
-      <c r="J84" s="21">
+      <c r="J88" s="21">
         <f t="shared" si="8"/>
         <v>5854</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K88" s="21">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L88" s="21">
         <f t="shared" si="10"/>
         <v>3690</v>
       </c>
-      <c r="M84" s="21">
+      <c r="M88" s="21">
         <f t="shared" si="11"/>
         <v>1170.8</v>
       </c>
-      <c r="N84" s="21">
+      <c r="N88" s="21">
         <f t="shared" si="7"/>
         <v>7.6</v>
       </c>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C85" s="31" t="s">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C89" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="32">
-        <f>((D84/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D89" s="32">
+        <f>((D88/ 'First Table'!I12  )*100)/D5</f>
         <v>58.177656284257516</v>
       </c>
-      <c r="E85" s="33">
-        <f>((E84/   'First Table'!I13   )*100)/E5</f>
+      <c r="E89" s="33">
+        <f>((E88/   'First Table'!I13   )*100)/E5</f>
         <v>82.355944227020487</v>
       </c>
-      <c r="F85" s="33">
-        <f>((F84/   'First Table'!I14    )*100)/F5</f>
+      <c r="F89" s="33">
+        <f>((F88/   'First Table'!I14    )*100)/F5</f>
         <v>63.070870836970542</v>
       </c>
-      <c r="G85" s="33">
-        <f>((G84/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G89" s="33">
+        <f>((G88/ 'First Table'!I15  )*100)/G5</f>
         <v>112.13975285515232</v>
       </c>
-      <c r="H85" s="33">
-        <f>((H84/   'First Table'!I16    )*100)/H5</f>
+      <c r="H89" s="33">
+        <f>((H88/   'First Table'!I16    )*100)/H5</f>
         <v>50.611575795651945</v>
       </c>
-      <c r="J85" s="21">
+      <c r="J89" s="21">
         <f t="shared" si="8"/>
         <v>366.35579999905281</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K89" s="21">
         <f t="shared" si="9"/>
         <v>50.611575795651945</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L89" s="21">
         <f t="shared" si="10"/>
         <v>112.13975285515232</v>
       </c>
-      <c r="M85" s="21">
+      <c r="M89" s="21">
         <f t="shared" si="11"/>
         <v>73.271159999810564</v>
       </c>
-      <c r="N85" s="21">
+      <c r="N89" s="21">
         <f t="shared" si="7"/>
         <v>10.122315159130389</v>
       </c>
     </row>
-    <row r="86" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C86" s="36" t="s">
+    <row r="90" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C90" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D90" s="33">
         <v>33</v>
       </c>
-      <c r="E86" s="33">
+      <c r="E90" s="33">
         <v>84</v>
       </c>
-      <c r="F86" s="33">
+      <c r="F90" s="33">
         <v>1437</v>
       </c>
-      <c r="G86" s="33">
+      <c r="G90" s="33">
         <v>664</v>
       </c>
-      <c r="H86" s="33">
+      <c r="H90" s="33">
         <v>3758</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J90" s="21">
         <f t="shared" si="8"/>
         <v>5976</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K90" s="21">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L90" s="21">
         <f t="shared" si="10"/>
         <v>3758</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M90" s="21">
         <f t="shared" si="11"/>
         <v>1195.2</v>
       </c>
-      <c r="N86" s="21">
+      <c r="N90" s="21">
         <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="35" t="s">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C91" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="33">
-        <f>((D86/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D91" s="33">
+        <f>((D90/ 'First Table'!I12  )*100)/D5</f>
         <v>50.522701510013114</v>
       </c>
-      <c r="E87" s="33">
-        <f>((E86/   'First Table'!I13   )*100)/E5</f>
+      <c r="E91" s="33">
+        <f>((E90/   'First Table'!I13   )*100)/E5</f>
         <v>89.842848247658708</v>
       </c>
-      <c r="F87" s="33">
-        <f>((F86/   'First Table'!I14    )*100)/F5</f>
+      <c r="F91" s="33">
+        <f>((F90/   'First Table'!I14    )*100)/F5</f>
         <v>64.461480364670464</v>
       </c>
-      <c r="G87" s="33">
-        <f>((G86/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G91" s="33">
+        <f>((G90/ 'First Table'!I15  )*100)/G5</f>
         <v>115.80217091107488</v>
       </c>
-      <c r="H87" s="33">
-        <f>((H86/   'First Table'!I16    )*100)/H5</f>
+      <c r="H91" s="33">
+        <f>((H90/   'First Table'!I16    )*100)/H5</f>
         <v>51.544255241208667</v>
       </c>
-      <c r="J87" s="21">
+      <c r="J91" s="21">
         <f t="shared" si="8"/>
         <v>372.17345627462583</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K91" s="21">
         <f t="shared" si="9"/>
         <v>50.522701510013114</v>
       </c>
-      <c r="L87" s="21">
+      <c r="L91" s="21">
         <f t="shared" si="10"/>
         <v>115.80217091107488</v>
       </c>
-      <c r="M87" s="21">
+      <c r="M91" s="21">
         <f t="shared" si="11"/>
         <v>74.43469125492517</v>
       </c>
-      <c r="N87" s="21">
+      <c r="N91" s="21">
         <f t="shared" si="7"/>
         <v>10.104540302002622</v>
       </c>
     </row>
-    <row r="88" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C88" s="36" t="s">
+    <row r="92" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C92" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D92" s="33">
         <v>35</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E92" s="33">
         <v>78</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F92" s="33">
         <v>1435</v>
       </c>
-      <c r="G88" s="33">
+      <c r="G92" s="33">
         <v>659</v>
       </c>
-      <c r="H88" s="33">
+      <c r="H92" s="33">
         <v>3794</v>
       </c>
-      <c r="J88" s="21">
+      <c r="J92" s="21">
         <f t="shared" si="8"/>
         <v>6001</v>
       </c>
-      <c r="K88" s="21">
+      <c r="K92" s="21">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="L88" s="21">
+      <c r="L92" s="21">
         <f t="shared" si="10"/>
         <v>3794</v>
       </c>
-      <c r="M88" s="21">
+      <c r="M92" s="21">
         <f t="shared" si="11"/>
         <v>1200.2</v>
       </c>
-      <c r="N88" s="21">
+      <c r="N92" s="21">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C89" s="35" t="s">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C93" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D89" s="33">
-        <f>((D88/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D93" s="33">
+        <f>((D92/ 'First Table'!I12  )*100)/D5</f>
         <v>53.584683419710871</v>
       </c>
-      <c r="E89" s="33">
-        <f>((E88/   'First Table'!I13   )*100)/E5</f>
+      <c r="E93" s="33">
+        <f>((E92/   'First Table'!I13   )*100)/E5</f>
         <v>83.42550194425452</v>
       </c>
-      <c r="F89" s="33">
-        <f>((F88/   'First Table'!I14    )*100)/F5</f>
+      <c r="F93" s="33">
+        <f>((F92/   'First Table'!I14    )*100)/F5</f>
         <v>64.371763620947888</v>
       </c>
-      <c r="G89" s="33">
-        <f>((G88/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G93" s="33">
+        <f>((G92/ 'First Table'!I15  )*100)/G5</f>
         <v>114.93016661204571</v>
       </c>
-      <c r="H89" s="33">
-        <f>((H88/   'First Table'!I16    )*100)/H5</f>
+      <c r="H93" s="33">
+        <f>((H92/   'First Table'!I16    )*100)/H5</f>
         <v>52.038026712385758</v>
       </c>
-      <c r="J89" s="21">
+      <c r="J93" s="21">
         <f t="shared" si="8"/>
         <v>368.35014230934473</v>
       </c>
-      <c r="K89" s="21">
+      <c r="K93" s="21">
         <f t="shared" si="9"/>
         <v>52.038026712385758</v>
       </c>
-      <c r="L89" s="21">
+      <c r="L93" s="21">
         <f t="shared" si="10"/>
         <v>114.93016661204571</v>
       </c>
-      <c r="M89" s="21">
+      <c r="M93" s="21">
         <f t="shared" si="11"/>
         <v>73.670028461868952</v>
       </c>
-      <c r="N89" s="21">
+      <c r="N93" s="21">
         <f t="shared" si="7"/>
         <v>10.407605342477151</v>
       </c>
     </row>
-    <row r="90" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C90" s="20" t="s">
+    <row r="94" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C94" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="L90" s="21">
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="L94" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C91" s="20" t="s">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C95" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="19">
-        <f>((D90/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D95" s="19">
+        <f>((D94/ 'First Table'!I12  )*100)/D5</f>
         <v>0</v>
       </c>
-      <c r="E91" s="19">
-        <f>((E90/   'First Table'!I13   )*100)/E5</f>
+      <c r="E95" s="19">
+        <f>((E94/   'First Table'!I13   )*100)/E5</f>
         <v>0</v>
       </c>
-      <c r="F91" s="19">
-        <f>((F90/   'First Table'!I14    )*100)/F5</f>
+      <c r="F95" s="19">
+        <f>((F94/   'First Table'!I14    )*100)/F5</f>
         <v>0</v>
       </c>
-      <c r="G91" s="19">
-        <f>((G90/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G95" s="19">
+        <f>((G94/ 'First Table'!I15  )*100)/G5</f>
         <v>0</v>
       </c>
-      <c r="H91" s="19">
-        <f>((H90/   'First Table'!I16    )*100)/H5</f>
+      <c r="H95" s="19">
+        <f>((H94/   'First Table'!I16    )*100)/H5</f>
         <v>0</v>
       </c>
-      <c r="L91" s="21">
+      <c r="L95" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -16719,7 +17084,7 @@
         <v>61.777822317087249</v>
       </c>
       <c r="M8" s="19" t="e">
-        <f>(('Results 1994-1999'!I32/   '[1]First Table'!I7    )*100)/#REF!</f>
+        <f>(('Results 2000 - 2005'!I32/   '[1]First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -16872,7 +17237,7 @@
         <v>66.873569087833317</v>
       </c>
       <c r="M20" s="19" t="e">
-        <f>((M19/   '[1]First Table'!I16    )*100)/'Results 1994-1999'!I4</f>
+        <f>((M19/   '[1]First Table'!I16    )*100)/'Results 2000 - 2005'!I4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16898,7 +17263,7 @@
         <v>66.840645985746988</v>
       </c>
       <c r="M22" s="19" t="e">
-        <f>((M21/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
+        <f>((M21/   '[1]First Table'!I18    )*100)/'Results 2000 - 2005'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16924,7 +17289,7 @@
         <v>61.126513553899898</v>
       </c>
       <c r="M24" s="19" t="e">
-        <f>((M23/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
+        <f>((M23/   '[1]First Table'!I18    )*100)/'Results 2000 - 2005'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16938,7 +17303,7 @@
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M26" s="19" t="e">
-        <f>((M25/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
+        <f>((M25/   '[1]First Table'!I18    )*100)/'Results 2000 - 2005'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16952,7 +17317,7 @@
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M28" s="19" t="e">
-        <f>((M27/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
+        <f>((M27/   '[1]First Table'!I18    )*100)/'Results 2000 - 2005'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16966,7 +17331,7 @@
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M30" s="19" t="e">
-        <f>((M29/   '[1]First Table'!I18    )*100)/'Results 1994-1999'!I6</f>
+        <f>((M29/   '[1]First Table'!I18    )*100)/'Results 2000 - 2005'!I6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16980,7 +17345,7 @@
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M32" s="19" t="e">
-        <f>((M31/   '[1]First Table'!I27    )*100)/'Results 1994-1999'!I15</f>
+        <f>((M31/   '[1]First Table'!I27    )*100)/'Results 2000 - 2005'!I15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16994,7 +17359,7 @@
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M34" s="19" t="e">
-        <f>((M33/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
+        <f>((M33/   '[1]First Table'!I29    )*100)/'Results 2000 - 2005'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17008,7 +17373,7 @@
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M36" s="19" t="e">
-        <f>((M35/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
+        <f>((M35/   '[1]First Table'!I29    )*100)/'Results 2000 - 2005'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17019,7 +17384,7 @@
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M38" s="19" t="e">
-        <f>((M37/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
+        <f>((M37/   '[1]First Table'!I29    )*100)/'Results 2000 - 2005'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17030,7 +17395,7 @@
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M40" s="19" t="e">
-        <f>((M39/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
+        <f>((M39/   '[1]First Table'!I29    )*100)/'Results 2000 - 2005'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17041,7 +17406,7 @@
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M42" s="19" t="e">
-        <f>((M41/   '[1]First Table'!I29    )*100)/'Results 1994-1999'!I17</f>
+        <f>((M41/   '[1]First Table'!I29    )*100)/'Results 2000 - 2005'!I17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
